--- a/blog-posts/improved-fifo-cogs-tracking.xlsx
+++ b/blog-posts/improved-fifo-cogs-tracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rupum\Documents\GitHub\rupumped.github.io\blog-posts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick\Documents\GitHub\rupumped.github.io\blog-posts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2932B9CB-D01D-4FBA-83BD-DDF69D843FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6DF226-84EE-4C80-87A5-DD3FD4DB7F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{1551AAD6-5FC8-4B2F-8B2B-6343C0AFC811}"/>
+    <workbookView xWindow="-240" yWindow="-240" windowWidth="29280" windowHeight="15960" xr2:uid="{1551AAD6-5FC8-4B2F-8B2B-6343C0AFC811}"/>
   </bookViews>
   <sheets>
     <sheet name="Pie" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -836,32 +836,32 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.83984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.26171875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.26171875" customWidth="1"/>
-    <col min="13" max="13" width="17.83984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.26171875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.41796875" customWidth="1"/>
-    <col min="16" max="16" width="18.41796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.15625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -876,7 +876,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:20" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -935,7 +935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42077</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42077</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42077</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42078</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42079</v>
       </c>
@@ -1243,15 +1243,15 @@
         <v>4</v>
       </c>
       <c r="I7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" s="3">
         <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[CORGS]]</f>
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="K7">
         <f>SUMIF(H$3:H7,Sales[[#This Row],[Flavor]],I$3:I7)</f>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L7">
         <f>IFERROR(_xlfn.XMATCH(Sales[[#This Row],[Flavor]],H$2:H6,0,-1)-1,0)</f>
@@ -1275,11 +1275,11 @@
       </c>
       <c r="Q7">
         <f>MIN(Sales[[#This Row],[Qty of Oldest Order Left in Inventory Before This Sale]],Sales[[#This Row],[Qty Sold]])</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R7" s="3">
         <f>Sales[[#This Row],[Qty of Oldest Order Sold]]*Sales[[#This Row],[Cost Per Unit of Oldest Inventory]]</f>
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="S7">
         <f>Sales[[#This Row],[Qty Sold]]-Sales[[#This Row],[Qty of Oldest Order Sold]]</f>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42080</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42081</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42082</v>
       </c>
@@ -1460,11 +1460,11 @@
       </c>
       <c r="J10" s="3">
         <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[CORGS]]</f>
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="K10">
         <f>SUMIF(H$3:H10,Sales[[#This Row],[Flavor]],I$3:I10)</f>
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L10">
         <f>IFERROR(_xlfn.XMATCH(Sales[[#This Row],[Flavor]],H$2:H9,0,-1)-1,0)</f>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="M10">
         <f>Sales[[#This Row],[Cumulative Sold]]-Sales[[#This Row],[Qty Sold]]</f>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N10" cm="1">
         <f t="array" ref="N10">_xlfn.XMATCH(Sales[[#This Row],[Total Qty Sold Before This Sale]],_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),1,1)</f>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="O10" cm="1">
         <f t="array" ref="O10">INDEX(_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]])-IF(Sales[[#This Row],[Index of Last Sale]]=0,0,INDEX(K$3:K9,Sales[[#This Row],[Index of Last Sale]]))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="3" cm="1">
         <f t="array" ref="P10">INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],Orders[Flavor]=Sales[[#This Row],[Flavor]]),Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]])</f>
@@ -1488,22 +1488,22 @@
       </c>
       <c r="Q10">
         <f>MIN(Sales[[#This Row],[Qty of Oldest Order Left in Inventory Before This Sale]],Sales[[#This Row],[Qty Sold]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="3">
         <f>Sales[[#This Row],[Qty of Oldest Order Sold]]*Sales[[#This Row],[Cost Per Unit of Oldest Inventory]]</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S10">
         <f>Sales[[#This Row],[Qty Sold]]-Sales[[#This Row],[Qty of Oldest Order Sold]]</f>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T10" s="3" cm="1">
         <f t="array" ref="T10">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.filteredCostPerUnit,_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),IF(Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]&gt;=ROWS(_xlpm.filteredSupply),0,CORGS(Sales[[#This Row],[Additional Qty Needed]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,_xlpm.filteredSupply,_xlpm.filteredCostPerUnit)))</f>
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42083</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42084</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42085</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42086</v>
       </c>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="K14">
         <f>SUMIF(H$3:H14,Sales[[#This Row],[Flavor]],I$3:I14)</f>
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L14">
         <f>IFERROR(_xlfn.XMATCH(Sales[[#This Row],[Flavor]],H$2:H13,0,-1)-1,0)</f>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="M14">
         <f>Sales[[#This Row],[Cumulative Sold]]-Sales[[#This Row],[Qty Sold]]</f>
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N14" cm="1">
         <f t="array" ref="N14">_xlfn.XMATCH(Sales[[#This Row],[Total Qty Sold Before This Sale]],_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),1,1)</f>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="O14" cm="1">
         <f t="array" ref="O14">INDEX(_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]])-IF(Sales[[#This Row],[Index of Last Sale]]=0,0,INDEX(K$3:K13,Sales[[#This Row],[Index of Last Sale]]))</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P14" s="3" cm="1">
         <f t="array" ref="P14">INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],Orders[Flavor]=Sales[[#This Row],[Flavor]]),Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]])</f>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42087</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42088</v>
       </c>
@@ -1898,29 +1898,29 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.83984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.578125" customWidth="1"/>
-    <col min="3" max="3" width="13.15625" customWidth="1"/>
-    <col min="4" max="4" width="12.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.15625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.68359375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.15625" customWidth="1"/>
-    <col min="10" max="10" width="14.15625" customWidth="1"/>
-    <col min="11" max="11" width="16.15625" customWidth="1"/>
-    <col min="12" max="12" width="27.26171875" customWidth="1"/>
-    <col min="13" max="13" width="30.578125" customWidth="1"/>
-    <col min="14" max="14" width="31.26171875" customWidth="1"/>
-    <col min="15" max="15" width="18.26171875" customWidth="1"/>
-    <col min="16" max="17" width="19.68359375" customWidth="1"/>
-    <col min="18" max="18" width="16.15625" customWidth="1"/>
-    <col min="19" max="19" width="19.68359375" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" customWidth="1"/>
+    <col min="13" max="13" width="30.5703125" customWidth="1"/>
+    <col min="14" max="14" width="31.28515625" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" customWidth="1"/>
+    <col min="16" max="17" width="19.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42077</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42077</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42077</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42109</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42110</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42111</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42142</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>1609.9999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42143</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42144</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42176</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42177</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42178</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42209</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42210</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42211</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42237</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42238</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42239</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42271</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42272</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42273</v>
       </c>

--- a/blog-posts/improved-fifo-cogs-tracking.xlsx
+++ b/blog-posts/improved-fifo-cogs-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick\Documents\GitHub\rupumped.github.io\blog-posts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6DF226-84EE-4C80-87A5-DD3FD4DB7F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7670C9FC-D527-4C4E-845F-C4BE6E2F559F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="-240" windowWidth="29280" windowHeight="15960" xr2:uid="{1551AAD6-5FC8-4B2F-8B2B-6343C0AFC811}"/>
+    <workbookView xWindow="-23136" yWindow="-2136" windowWidth="23232" windowHeight="13152" xr2:uid="{1551AAD6-5FC8-4B2F-8B2B-6343C0AFC811}"/>
   </bookViews>
   <sheets>
     <sheet name="Pie" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -116,9 +116,6 @@
     <t>COOGS</t>
   </si>
   <si>
-    <t>CORGS</t>
-  </si>
-  <si>
     <t>Total Qty Sold Before This Sale</t>
   </si>
   <si>
@@ -191,7 +188,37 @@
     <t>Additional Liters Needed</t>
   </si>
   <si>
-    <t>Price of Remaining Diesel Consumed</t>
+    <t>Index of Last Order Consumed</t>
+  </si>
+  <si>
+    <t>Index of Penultimate Order Consumed</t>
+  </si>
+  <si>
+    <t>Qty Sold from Middle Orders</t>
+  </si>
+  <si>
+    <t>COMGS</t>
+  </si>
+  <si>
+    <t>Index of Penultimate Diesel Consumed</t>
+  </si>
+  <si>
+    <t>Liters Consumed from Middle Orders</t>
+  </si>
+  <si>
+    <t>Liters Consumed from Last Order</t>
+  </si>
+  <si>
+    <t>Price of Diesel Consumed from Middle Orders</t>
+  </si>
+  <si>
+    <t>Price of Last Diesel Consumed</t>
+  </si>
+  <si>
+    <t>CONGS</t>
+  </si>
+  <si>
+    <t>Qty Sold from Newest Order</t>
   </si>
 </sst>
 </file>
@@ -246,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -257,6 +284,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -265,7 +293,7 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="17">
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -289,6 +317,101 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -406,13 +529,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{846781A9-55EC-4770-9C98-B1AE311B0F18}" name="Orders" displayName="Orders" ref="A2:E16" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{846781A9-55EC-4770-9C98-B1AE311B0F18}" name="Orders" displayName="Orders" ref="A2:E16" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A2:E16" xr:uid="{846781A9-55EC-4770-9C98-B1AE311B0F18}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5B95E58D-13AC-4902-9B91-20FE94B372A3}" name="Date" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{5B95E58D-13AC-4902-9B91-20FE94B372A3}" name="Date" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{3AC47689-5DFE-4D86-BAFF-AF23257E5270}" name="Flavor"/>
     <tableColumn id="3" xr3:uid="{A5A37564-B841-4F8E-8FFB-C9C109617CB0}" name="Qty Purchased"/>
-    <tableColumn id="4" xr3:uid="{D758F7FA-780D-4BC3-9315-1AC38002A24E}" name="Cost Per Unit" dataDxfId="9" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{D758F7FA-780D-4BC3-9315-1AC38002A24E}" name="Cost Per Unit" dataDxfId="14" dataCellStyle="Currency"/>
     <tableColumn id="5" xr3:uid="{5D89330C-A13F-4B13-9778-EF068DCE6C20}" name="Cumulative Ordered">
       <calculatedColumnFormula>SUMIF(B$3:B3,Orders[[#This Row],[Flavor]],C$3:C3)</calculatedColumnFormula>
     </tableColumn>
@@ -422,14 +545,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4D56D790-F4B7-43A8-A924-6BA6E1C4E55C}" name="Sales" displayName="Sales" ref="G2:T15" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" dataCellStyle="Currency">
-  <autoFilter ref="G2:T15" xr:uid="{4D56D790-F4B7-43A8-A924-6BA6E1C4E55C}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{DB97CD36-5ADB-41AB-9159-DF0568286388}" name="Date" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4D56D790-F4B7-43A8-A924-6BA6E1C4E55C}" name="Sales" displayName="Sales" ref="G2:Y15" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" dataCellStyle="Currency">
+  <autoFilter ref="G2:Y15" xr:uid="{4D56D790-F4B7-43A8-A924-6BA6E1C4E55C}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{DB97CD36-5ADB-41AB-9159-DF0568286388}" name="Date" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{66DB852D-B4A5-4A2E-B808-4AE8B7E0209C}" name="Flavor"/>
     <tableColumn id="3" xr3:uid="{CFC6ED41-0D49-4F79-A455-E7DDAE68C2B1}" name="Qty Sold"/>
-    <tableColumn id="4" xr3:uid="{66145013-CCDA-45E2-BDB7-8405BCDE97E3}" name="COGS" dataDxfId="5" dataCellStyle="Currency">
-      <calculatedColumnFormula>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[CORGS]]</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{66145013-CCDA-45E2-BDB7-8405BCDE97E3}" name="COGS" dataDxfId="10" dataCellStyle="Currency">
+      <calculatedColumnFormula>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[COMGS]]+Sales[[#This Row],[CONGS]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{4E763555-CAEC-43DA-B281-A69BFFA306BD}" name="Cumulative Sold">
       <calculatedColumnFormula>SUMIF(H$3:H3,Sales[[#This Row],[Flavor]],I$3:I3)</calculatedColumnFormula>
@@ -446,20 +569,35 @@
     <tableColumn id="10" xr3:uid="{031D3E9A-C971-42CA-8D81-D10A0BC88399}" name="Qty of Oldest Order Left in Inventory Before This Sale">
       <calculatedColumnFormula array="1">INDEX(_xlfn._xlws.FILTER(E$3:E$16,(B$3:B$16=H3)*(A$3:A$16&lt;G3)),N3)-IF(L3=0,0,INDEX(K2:K$3,L3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{1ED77A7A-D9ED-4F81-8833-F7A7C267F8D8}" name="Cost Per Unit of Oldest Inventory" dataDxfId="4" dataCellStyle="Currency">
+    <tableColumn id="11" xr3:uid="{1ED77A7A-D9ED-4F81-8833-F7A7C267F8D8}" name="Cost Per Unit of Oldest Inventory" dataDxfId="9" dataCellStyle="Currency">
       <calculatedColumnFormula array="1">INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],Orders[Flavor]=Sales[[#This Row],[Flavor]]),Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{3832647B-37DA-4DA9-95F0-9243CECCA8D4}" name="Qty of Oldest Order Sold">
       <calculatedColumnFormula>MIN(Sales[[#This Row],[Qty of Oldest Order Left in Inventory Before This Sale]],Sales[[#This Row],[Qty Sold]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{0C8457DB-D4B3-4CC0-B8BD-E0350F19876F}" name="COOGS" dataDxfId="3" dataCellStyle="Currency">
+    <tableColumn id="13" xr3:uid="{0C8457DB-D4B3-4CC0-B8BD-E0350F19876F}" name="COOGS" dataDxfId="8" dataCellStyle="Currency">
       <calculatedColumnFormula>Sales[[#This Row],[Qty of Oldest Order Sold]]*Sales[[#This Row],[Cost Per Unit of Oldest Inventory]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{4EE8349E-D2DB-4410-9B88-ED6165A5749C}" name="Additional Qty Needed">
       <calculatedColumnFormula>Sales[[#This Row],[Qty Sold]]-Sales[[#This Row],[Qty of Oldest Order Sold]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{18DA9874-71E3-4809-97E2-866FCD216761}" name="CORGS" dataDxfId="2" dataCellStyle="Currency">
-      <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.filteredCostPerUnit,_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),IF(Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]&gt;=ROWS(_xlpm.filteredSupply),0,CORGS(Sales[[#This Row],[Additional Qty Needed]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,_xlpm.filteredSupply,_xlpm.filteredCostPerUnit)))</calculatedColumnFormula>
+    <tableColumn id="15" xr3:uid="{18DA9874-71E3-4809-97E2-866FCD216761}" name="Index of Last Order Consumed" dataDxfId="7" dataCellStyle="Currency">
+      <calculatedColumnFormula array="1">_xlfn.XMATCH(Sales[[#This Row],[Cumulative Sold]],_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),1,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{EEBF4F7C-F5E6-4A0F-BEA2-835F1E9C3C62}" name="Index of Penultimate Order Consumed" dataDxfId="6" dataCellStyle="Currency">
+      <calculatedColumnFormula>IF(Sales[[#This Row],[Index of Last Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Last Order Consumed]]-1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{A6FCDAA1-FEF8-4D65-9B0D-CFDE03E9A3A6}" name="Qty Sold from Middle Orders" dataDxfId="5" dataCellStyle="Currency">
+      <calculatedColumnFormula array="1">IF(Sales[[#This Row],[Index of Penultimate Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],0,SUM(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{61F449DF-5398-41B1-B241-4D51DCC2798C}" name="Qty Sold from Newest Order" dataDxfId="4" dataCellStyle="Currency">
+      <calculatedColumnFormula>Sales[[#This Row],[Additional Qty Needed]]-Sales[[#This Row],[Qty Sold from Middle Orders]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{2DBD1FA2-808C-4744-8FE7-035F5BF4144E}" name="COMGS" dataDxfId="3" dataCellStyle="Currency">
+      <calculatedColumnFormula array="1">IF(Sales[[#This Row],[Qty Sold from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsedInThisSale,_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale),INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{EBBD3C76-33C7-4FF1-A5DC-6FB80699CF5B}" name="CONGS" dataDxfId="2" dataCellStyle="Currency">
+      <calculatedColumnFormula array="1">Sales[[#This Row],[Qty Sold from Newest Order]]*INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),Sales[[#This Row],[Index of Last Order Consumed]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -467,9 +605,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{21098B8D-5146-4F37-AE70-C563D4C0685C}" name="Diesel" displayName="Diesel" ref="A1:S22" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:S22" xr:uid="{21098B8D-5146-4F37-AE70-C563D4C0685C}"/>
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{21098B8D-5146-4F37-AE70-C563D4C0685C}" name="Diesel" displayName="Diesel" ref="A1:X22" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:X22" xr:uid="{21098B8D-5146-4F37-AE70-C563D4C0685C}"/>
+  <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{EA71153E-86AA-4BA1-BE55-F60D0B1CED0F}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{DE63CF43-F0F3-4847-81D4-31639782AC8B}" name="Project"/>
     <tableColumn id="3" xr3:uid="{B0EAE31E-7F06-4A96-B337-B1F2F2FD98A6}" name="Starting Balance [L]"/>
@@ -482,7 +620,7 @@
       <calculatedColumnFormula array="1">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,INDEX(Diesel[Ending Balance '[L']],Diesel[[#This Row],[Index of Last Entry]])-Diesel[[#This Row],[Starting Balance '[L']]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{2BBAF64A-DC73-4EA5-9EA0-3AFE60077AF7}" name="Cost of Consumption">
-      <calculatedColumnFormula>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Remaining Diesel Consumed]]</calculatedColumnFormula>
+      <calculatedColumnFormula>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Diesel Consumed from Middle Orders]]+Diesel[[#This Row],[Price of Last Diesel Consumed]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{336178C8-F3EC-4ABC-AA80-EE982DFE7014}" name="Index of Last Entry">
       <calculatedColumnFormula>IFERROR(_xlfn.XMATCH(Diesel[[#This Row],[Project]],B$1:B1,0,-1)-1,0)</calculatedColumnFormula>
@@ -508,9 +646,16 @@
     <tableColumn id="19" xr3:uid="{C067D56C-4FB6-4AE5-9188-F1DC56EB9C0D}" name="Additional Liters Needed">
       <calculatedColumnFormula>Diesel[[#This Row],[Diesel Used '[L']]]-Diesel[[#This Row],[Liters of Oldest Diesel Consumed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{EFE63D98-B8C4-4CE4-8781-E6084342BB0D}" name="Price of Remaining Diesel Consumed">
-      <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(D$2:D2,B$2:B2=Diesel[[#This Row],[Project]]),_xlpm.filteredPricePerLiter,_xlfn._xlws.FILTER(E$2:E2,B$2:B2=Diesel[[#This Row],[Project]]),IF(Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]&gt;=ROWS(_xlpm.filteredSupply),0,CORD(Diesel[[#This Row],[Additional Liters Needed]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,_xlpm.filteredSupply,_xlpm.filteredPricePerLiter)))</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{908B9BAC-BBA0-45EE-B9C3-1619C15650AA}" name="Index of Last Order Consumed"/>
+    <tableColumn id="21" xr3:uid="{87D1087F-034E-42B1-A2F6-95DFDC0E61AB}" name="Index of Penultimate Diesel Consumed">
+      <calculatedColumnFormula>IF(Diesel[[#This Row],[Index of Last Order Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Last Order Consumed]]-1)</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="22" xr3:uid="{BCF72601-BD8A-41FC-B0FA-713A2E57F9FB}" name="Liters Consumed from Middle Orders"/>
+    <tableColumn id="24" xr3:uid="{26869B47-CF0B-4D1F-BCDC-523443952C05}" name="Liters Consumed from Last Order">
+      <calculatedColumnFormula>Diesel[[#This Row],[Additional Liters Needed]]-Diesel[[#This Row],[Liters Consumed from Middle Orders]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" xr3:uid="{FE2E61A2-D0DD-4B95-A75E-7C8AE5EE63D5}" name="Price of Diesel Consumed from Middle Orders"/>
+    <tableColumn id="26" xr3:uid="{081D0B4E-A84E-4067-8EC2-F60C64D99B71}" name="Price of Last Diesel Consumed"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -833,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA1663B-1244-43FE-AC2F-F7E2DADC8CDE}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,25 +1003,30 @@
     <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
       <c r="E1" s="4"/>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -911,31 +1061,46 @@
         <v>13</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42077</v>
       </c>
@@ -959,15 +1124,15 @@
         <v>4</v>
       </c>
       <c r="I3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J3" s="3">
-        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[CORGS]]</f>
-        <v>330</v>
+        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[COMGS]]+Sales[[#This Row],[CONGS]]</f>
+        <v>11</v>
       </c>
       <c r="K3">
         <f>SUMIF(H$3:H3,Sales[[#This Row],[Flavor]],I$3:I3)</f>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <f>IFERROR(_xlfn.XMATCH(Sales[[#This Row],[Flavor]],H$2:H2,0,-1)-1,0)</f>
@@ -991,22 +1156,42 @@
       </c>
       <c r="Q3">
         <f>MIN(Sales[[#This Row],[Qty of Oldest Order Left in Inventory Before This Sale]],Sales[[#This Row],[Qty Sold]])</f>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R3" s="3">
         <f>Sales[[#This Row],[Qty of Oldest Order Sold]]*Sales[[#This Row],[Cost Per Unit of Oldest Inventory]]</f>
-        <v>330</v>
+        <v>11</v>
       </c>
       <c r="S3">
         <f>Sales[[#This Row],[Qty Sold]]-Sales[[#This Row],[Qty of Oldest Order Sold]]</f>
         <v>0</v>
       </c>
-      <c r="T3" s="3" cm="1">
-        <f t="array" ref="T3">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.filteredCostPerUnit,_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),IF(Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]&gt;=ROWS(_xlpm.filteredSupply),0,CORGS(Sales[[#This Row],[Additional Qty Needed]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,_xlpm.filteredSupply,_xlpm.filteredCostPerUnit)))</f>
+      <c r="T3" s="6" cm="1">
+        <f t="array" ref="T3">_xlfn.XMATCH(Sales[[#This Row],[Cumulative Sold]],_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="U3" s="6">
+        <f>IF(Sales[[#This Row],[Index of Last Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>1</v>
+      </c>
+      <c r="V3" s="6" cm="1">
+        <f t="array" ref="V3">IF(Sales[[#This Row],[Index of Penultimate Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],0,SUM(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="6">
+        <f>Sales[[#This Row],[Additional Qty Needed]]-Sales[[#This Row],[Qty Sold from Middle Orders]]</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="3" cm="1">
+        <f t="array" ref="X3">IF(Sales[[#This Row],[Qty Sold from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsedInThisSale,_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale),INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale))))</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3" cm="1">
+        <f t="array" ref="Y3">Sales[[#This Row],[Qty Sold from Newest Order]]*INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),Sales[[#This Row],[Index of Last Order Consumed]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42077</v>
       </c>
@@ -1033,7 +1218,7 @@
         <v>25</v>
       </c>
       <c r="J4" s="3">
-        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[CORGS]]</f>
+        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[COMGS]]+Sales[[#This Row],[CONGS]]</f>
         <v>325</v>
       </c>
       <c r="K4">
@@ -1072,12 +1257,32 @@
         <f>Sales[[#This Row],[Qty Sold]]-Sales[[#This Row],[Qty of Oldest Order Sold]]</f>
         <v>0</v>
       </c>
-      <c r="T4" s="3" cm="1">
-        <f t="array" ref="T4">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.filteredCostPerUnit,_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),IF(Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]&gt;=ROWS(_xlpm.filteredSupply),0,CORGS(Sales[[#This Row],[Additional Qty Needed]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,_xlpm.filteredSupply,_xlpm.filteredCostPerUnit)))</f>
+      <c r="T4" s="6" cm="1">
+        <f t="array" ref="T4">_xlfn.XMATCH(Sales[[#This Row],[Cumulative Sold]],_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="U4" s="6">
+        <f>IF(Sales[[#This Row],[Index of Last Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>1</v>
+      </c>
+      <c r="V4" s="6" cm="1">
+        <f t="array" ref="V4">IF(Sales[[#This Row],[Index of Penultimate Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],0,SUM(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <f>Sales[[#This Row],[Additional Qty Needed]]-Sales[[#This Row],[Qty Sold from Middle Orders]]</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="3" cm="1">
+        <f t="array" ref="X4">IF(Sales[[#This Row],[Qty Sold from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsedInThisSale,_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale),INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale))))</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3" cm="1">
+        <f t="array" ref="Y4">Sales[[#This Row],[Qty Sold from Newest Order]]*INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),Sales[[#This Row],[Index of Last Order Consumed]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42077</v>
       </c>
@@ -1104,7 +1309,7 @@
         <v>45</v>
       </c>
       <c r="J5" s="3">
-        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[CORGS]]</f>
+        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[COMGS]]+Sales[[#This Row],[CONGS]]</f>
         <v>630</v>
       </c>
       <c r="K5">
@@ -1143,12 +1348,32 @@
         <f>Sales[[#This Row],[Qty Sold]]-Sales[[#This Row],[Qty of Oldest Order Sold]]</f>
         <v>0</v>
       </c>
-      <c r="T5" s="3" cm="1">
-        <f t="array" ref="T5">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.filteredCostPerUnit,_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),IF(Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]&gt;=ROWS(_xlpm.filteredSupply),0,CORGS(Sales[[#This Row],[Additional Qty Needed]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,_xlpm.filteredSupply,_xlpm.filteredCostPerUnit)))</f>
+      <c r="T5" s="6" cm="1">
+        <f t="array" ref="T5">_xlfn.XMATCH(Sales[[#This Row],[Cumulative Sold]],_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="U5" s="6">
+        <f>IF(Sales[[#This Row],[Index of Last Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>1</v>
+      </c>
+      <c r="V5" s="6" cm="1">
+        <f t="array" ref="V5">IF(Sales[[#This Row],[Index of Penultimate Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],0,SUM(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="6">
+        <f>Sales[[#This Row],[Additional Qty Needed]]-Sales[[#This Row],[Qty Sold from Middle Orders]]</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="3" cm="1">
+        <f t="array" ref="X5">IF(Sales[[#This Row],[Qty Sold from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsedInThisSale,_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale),INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale))))</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3" cm="1">
+        <f t="array" ref="Y5">Sales[[#This Row],[Qty Sold from Newest Order]]*INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),Sales[[#This Row],[Index of Last Order Consumed]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42078</v>
       </c>
@@ -1172,15 +1397,15 @@
         <v>4</v>
       </c>
       <c r="I6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J6" s="3">
-        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[CORGS]]</f>
-        <v>165</v>
+        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[COMGS]]+Sales[[#This Row],[CONGS]]</f>
+        <v>11</v>
       </c>
       <c r="K6">
         <f>SUMIF(H$3:H6,Sales[[#This Row],[Flavor]],I$3:I6)</f>
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <f>IFERROR(_xlfn.XMATCH(Sales[[#This Row],[Flavor]],H$2:H5,0,-1)-1,0)</f>
@@ -1188,7 +1413,7 @@
       </c>
       <c r="M6">
         <f>Sales[[#This Row],[Cumulative Sold]]-Sales[[#This Row],[Qty Sold]]</f>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="N6" cm="1">
         <f t="array" ref="N6">_xlfn.XMATCH(Sales[[#This Row],[Total Qty Sold Before This Sale]],_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),1,1)</f>
@@ -1196,7 +1421,7 @@
       </c>
       <c r="O6" cm="1">
         <f t="array" ref="O6">INDEX(_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]])-IF(Sales[[#This Row],[Index of Last Sale]]=0,0,INDEX(K$3:K5,Sales[[#This Row],[Index of Last Sale]]))</f>
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="P6" s="3" cm="1">
         <f t="array" ref="P6">INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],Orders[Flavor]=Sales[[#This Row],[Flavor]]),Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]])</f>
@@ -1204,22 +1429,42 @@
       </c>
       <c r="Q6">
         <f>MIN(Sales[[#This Row],[Qty of Oldest Order Left in Inventory Before This Sale]],Sales[[#This Row],[Qty Sold]])</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R6" s="3">
         <f>Sales[[#This Row],[Qty of Oldest Order Sold]]*Sales[[#This Row],[Cost Per Unit of Oldest Inventory]]</f>
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="S6">
         <f>Sales[[#This Row],[Qty Sold]]-Sales[[#This Row],[Qty of Oldest Order Sold]]</f>
-        <v>4</v>
-      </c>
-      <c r="T6" s="3" cm="1">
-        <f t="array" ref="T6">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.filteredCostPerUnit,_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),IF(Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]&gt;=ROWS(_xlpm.filteredSupply),0,CORGS(Sales[[#This Row],[Additional Qty Needed]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,_xlpm.filteredSupply,_xlpm.filteredCostPerUnit)))</f>
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="T6" s="6" cm="1">
+        <f t="array" ref="T6">_xlfn.XMATCH(Sales[[#This Row],[Cumulative Sold]],_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="U6" s="6">
+        <f>IF(Sales[[#This Row],[Index of Last Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>1</v>
+      </c>
+      <c r="V6" s="6" cm="1">
+        <f t="array" ref="V6">IF(Sales[[#This Row],[Index of Penultimate Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],0,SUM(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="6">
+        <f>Sales[[#This Row],[Additional Qty Needed]]-Sales[[#This Row],[Qty Sold from Middle Orders]]</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="3" cm="1">
+        <f t="array" ref="X6">IF(Sales[[#This Row],[Qty Sold from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsedInThisSale,_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale),INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale))))</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3" cm="1">
+        <f t="array" ref="Y6">Sales[[#This Row],[Qty Sold from Newest Order]]*INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),Sales[[#This Row],[Index of Last Order Consumed]])</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42079</v>
       </c>
@@ -1243,15 +1488,15 @@
         <v>4</v>
       </c>
       <c r="I7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J7" s="3">
-        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[CORGS]]</f>
-        <v>231</v>
+        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[COMGS]]+Sales[[#This Row],[CONGS]]</f>
+        <v>11</v>
       </c>
       <c r="K7">
         <f>SUMIF(H$3:H7,Sales[[#This Row],[Flavor]],I$3:I7)</f>
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <f>IFERROR(_xlfn.XMATCH(Sales[[#This Row],[Flavor]],H$2:H6,0,-1)-1,0)</f>
@@ -1259,15 +1504,15 @@
       </c>
       <c r="M7">
         <f>Sales[[#This Row],[Cumulative Sold]]-Sales[[#This Row],[Qty Sold]]</f>
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="N7" cm="1">
         <f t="array" ref="N7">_xlfn.XMATCH(Sales[[#This Row],[Total Qty Sold Before This Sale]],_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),1,1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" cm="1">
         <f t="array" ref="O7">INDEX(_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]])-IF(Sales[[#This Row],[Index of Last Sale]]=0,0,INDEX(K$3:K6,Sales[[#This Row],[Index of Last Sale]]))</f>
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="P7" s="3" cm="1">
         <f t="array" ref="P7">INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],Orders[Flavor]=Sales[[#This Row],[Flavor]]),Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]])</f>
@@ -1275,22 +1520,42 @@
       </c>
       <c r="Q7">
         <f>MIN(Sales[[#This Row],[Qty of Oldest Order Left in Inventory Before This Sale]],Sales[[#This Row],[Qty Sold]])</f>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="R7" s="3">
         <f>Sales[[#This Row],[Qty of Oldest Order Sold]]*Sales[[#This Row],[Cost Per Unit of Oldest Inventory]]</f>
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="S7">
         <f>Sales[[#This Row],[Qty Sold]]-Sales[[#This Row],[Qty of Oldest Order Sold]]</f>
         <v>0</v>
       </c>
-      <c r="T7" s="3" cm="1">
-        <f t="array" ref="T7">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.filteredCostPerUnit,_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),IF(Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]&gt;=ROWS(_xlpm.filteredSupply),0,CORGS(Sales[[#This Row],[Additional Qty Needed]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,_xlpm.filteredSupply,_xlpm.filteredCostPerUnit)))</f>
+      <c r="T7" s="6" cm="1">
+        <f t="array" ref="T7">_xlfn.XMATCH(Sales[[#This Row],[Cumulative Sold]],_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="U7" s="6">
+        <f>IF(Sales[[#This Row],[Index of Last Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>1</v>
+      </c>
+      <c r="V7" s="6" cm="1">
+        <f t="array" ref="V7">IF(Sales[[#This Row],[Index of Penultimate Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],0,SUM(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="6">
+        <f>Sales[[#This Row],[Additional Qty Needed]]-Sales[[#This Row],[Qty Sold from Middle Orders]]</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="3" cm="1">
+        <f t="array" ref="X7">IF(Sales[[#This Row],[Qty Sold from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsedInThisSale,_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale),INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale))))</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3" cm="1">
+        <f t="array" ref="Y7">Sales[[#This Row],[Qty Sold from Newest Order]]*INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),Sales[[#This Row],[Index of Last Order Consumed]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42080</v>
       </c>
@@ -1317,7 +1582,7 @@
         <v>16</v>
       </c>
       <c r="J8" s="3">
-        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[CORGS]]</f>
+        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[COMGS]]+Sales[[#This Row],[CONGS]]</f>
         <v>226</v>
       </c>
       <c r="K8">
@@ -1356,12 +1621,32 @@
         <f>Sales[[#This Row],[Qty Sold]]-Sales[[#This Row],[Qty of Oldest Order Sold]]</f>
         <v>2</v>
       </c>
-      <c r="T8" s="3" cm="1">
-        <f t="array" ref="T8">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.filteredCostPerUnit,_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),IF(Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]&gt;=ROWS(_xlpm.filteredSupply),0,CORGS(Sales[[#This Row],[Additional Qty Needed]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,_xlpm.filteredSupply,_xlpm.filteredCostPerUnit)))</f>
+      <c r="T8" s="6" cm="1">
+        <f t="array" ref="T8">_xlfn.XMATCH(Sales[[#This Row],[Cumulative Sold]],_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),1,1)</f>
+        <v>2</v>
+      </c>
+      <c r="U8" s="6">
+        <f>IF(Sales[[#This Row],[Index of Last Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>1</v>
+      </c>
+      <c r="V8" s="6" cm="1">
+        <f t="array" ref="V8">IF(Sales[[#This Row],[Index of Penultimate Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],0,SUM(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="6">
+        <f>Sales[[#This Row],[Additional Qty Needed]]-Sales[[#This Row],[Qty Sold from Middle Orders]]</f>
+        <v>2</v>
+      </c>
+      <c r="X8" s="3" cm="1">
+        <f t="array" ref="X8">IF(Sales[[#This Row],[Qty Sold from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsedInThisSale,_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale),INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale))))</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3" cm="1">
+        <f t="array" ref="Y8">Sales[[#This Row],[Qty Sold from Newest Order]]*INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),Sales[[#This Row],[Index of Last Order Consumed]])</f>
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42081</v>
       </c>
@@ -1388,7 +1673,7 @@
         <v>15</v>
       </c>
       <c r="J9" s="3">
-        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[CORGS]]</f>
+        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[COMGS]]+Sales[[#This Row],[CONGS]]</f>
         <v>249</v>
       </c>
       <c r="K9">
@@ -1427,12 +1712,32 @@
         <f>Sales[[#This Row],[Qty Sold]]-Sales[[#This Row],[Qty of Oldest Order Sold]]</f>
         <v>9</v>
       </c>
-      <c r="T9" s="3" cm="1">
-        <f t="array" ref="T9">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.filteredCostPerUnit,_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),IF(Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]&gt;=ROWS(_xlpm.filteredSupply),0,CORGS(Sales[[#This Row],[Additional Qty Needed]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,_xlpm.filteredSupply,_xlpm.filteredCostPerUnit)))</f>
+      <c r="T9" s="6" cm="1">
+        <f t="array" ref="T9">_xlfn.XMATCH(Sales[[#This Row],[Cumulative Sold]],_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),1,1)</f>
+        <v>2</v>
+      </c>
+      <c r="U9" s="6">
+        <f>IF(Sales[[#This Row],[Index of Last Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>1</v>
+      </c>
+      <c r="V9" s="6" cm="1">
+        <f t="array" ref="V9">IF(Sales[[#This Row],[Index of Penultimate Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],0,SUM(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="6">
+        <f>Sales[[#This Row],[Additional Qty Needed]]-Sales[[#This Row],[Qty Sold from Middle Orders]]</f>
+        <v>9</v>
+      </c>
+      <c r="X9" s="3" cm="1">
+        <f t="array" ref="X9">IF(Sales[[#This Row],[Qty Sold from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsedInThisSale,_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale),INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale))))</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3" cm="1">
+        <f t="array" ref="Y9">Sales[[#This Row],[Qty Sold from Newest Order]]*INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),Sales[[#This Row],[Index of Last Order Consumed]])</f>
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42082</v>
       </c>
@@ -1456,15 +1761,15 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="J10" s="3">
-        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[CORGS]]</f>
-        <v>1589</v>
+        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[COMGS]]+Sales[[#This Row],[CONGS]]</f>
+        <v>2387</v>
       </c>
       <c r="K10">
         <f>SUMIF(H$3:H10,Sales[[#This Row],[Flavor]],I$3:I10)</f>
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="L10">
         <f>IFERROR(_xlfn.XMATCH(Sales[[#This Row],[Flavor]],H$2:H9,0,-1)-1,0)</f>
@@ -1472,15 +1777,15 @@
       </c>
       <c r="M10">
         <f>Sales[[#This Row],[Cumulative Sold]]-Sales[[#This Row],[Qty Sold]]</f>
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="N10" cm="1">
         <f t="array" ref="N10">_xlfn.XMATCH(Sales[[#This Row],[Total Qty Sold Before This Sale]],_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),1,1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O10" cm="1">
         <f t="array" ref="O10">INDEX(_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]])-IF(Sales[[#This Row],[Index of Last Sale]]=0,0,INDEX(K$3:K9,Sales[[#This Row],[Index of Last Sale]]))</f>
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="P10" s="3" cm="1">
         <f t="array" ref="P10">INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],Orders[Flavor]=Sales[[#This Row],[Flavor]]),Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]])</f>
@@ -1488,22 +1793,42 @@
       </c>
       <c r="Q10">
         <f>MIN(Sales[[#This Row],[Qty of Oldest Order Left in Inventory Before This Sale]],Sales[[#This Row],[Qty Sold]])</f>
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="R10" s="3">
         <f>Sales[[#This Row],[Qty of Oldest Order Sold]]*Sales[[#This Row],[Cost Per Unit of Oldest Inventory]]</f>
-        <v>11</v>
+        <v>418</v>
       </c>
       <c r="S10">
         <f>Sales[[#This Row],[Qty Sold]]-Sales[[#This Row],[Qty of Oldest Order Sold]]</f>
-        <v>99</v>
-      </c>
-      <c r="T10" s="3" cm="1">
-        <f t="array" ref="T10">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.filteredCostPerUnit,_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),IF(Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]&gt;=ROWS(_xlpm.filteredSupply),0,CORGS(Sales[[#This Row],[Additional Qty Needed]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,_xlpm.filteredSupply,_xlpm.filteredCostPerUnit)))</f>
-        <v>1578</v>
+        <v>132</v>
+      </c>
+      <c r="T10" s="6" cm="1">
+        <f t="array" ref="T10">_xlfn.XMATCH(Sales[[#This Row],[Cumulative Sold]],_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),1,1)</f>
+        <v>4</v>
+      </c>
+      <c r="U10" s="6">
+        <f>IF(Sales[[#This Row],[Index of Last Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>3</v>
+      </c>
+      <c r="V10" s="6" cm="1">
+        <f t="array" ref="V10">IF(Sales[[#This Row],[Index of Penultimate Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],0,SUM(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1))))</f>
+        <v>119</v>
+      </c>
+      <c r="W10" s="6">
+        <f>Sales[[#This Row],[Additional Qty Needed]]-Sales[[#This Row],[Qty Sold from Middle Orders]]</f>
+        <v>13</v>
+      </c>
+      <c r="X10" s="3" cm="1">
+        <f t="array" ref="X10">IF(Sales[[#This Row],[Qty Sold from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsedInThisSale,_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale),INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale))))</f>
+        <v>1774</v>
+      </c>
+      <c r="Y10" s="3" cm="1">
+        <f t="array" ref="Y10">Sales[[#This Row],[Qty Sold from Newest Order]]*INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),Sales[[#This Row],[Index of Last Order Consumed]])</f>
+        <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42083</v>
       </c>
@@ -1530,7 +1855,7 @@
         <v>45</v>
       </c>
       <c r="J11" s="3">
-        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[CORGS]]</f>
+        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[COMGS]]+Sales[[#This Row],[CONGS]]</f>
         <v>855</v>
       </c>
       <c r="K11">
@@ -1569,12 +1894,32 @@
         <f>Sales[[#This Row],[Qty Sold]]-Sales[[#This Row],[Qty of Oldest Order Sold]]</f>
         <v>0</v>
       </c>
-      <c r="T11" s="3" cm="1">
-        <f t="array" ref="T11">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.filteredCostPerUnit,_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),IF(Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]&gt;=ROWS(_xlpm.filteredSupply),0,CORGS(Sales[[#This Row],[Additional Qty Needed]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,_xlpm.filteredSupply,_xlpm.filteredCostPerUnit)))</f>
+      <c r="T11" s="6" cm="1">
+        <f t="array" ref="T11">_xlfn.XMATCH(Sales[[#This Row],[Cumulative Sold]],_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),1,1)</f>
+        <v>2</v>
+      </c>
+      <c r="U11" s="6">
+        <f>IF(Sales[[#This Row],[Index of Last Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>2</v>
+      </c>
+      <c r="V11" s="6" cm="1">
+        <f t="array" ref="V11">IF(Sales[[#This Row],[Index of Penultimate Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],0,SUM(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="6">
+        <f>Sales[[#This Row],[Additional Qty Needed]]-Sales[[#This Row],[Qty Sold from Middle Orders]]</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="3" cm="1">
+        <f t="array" ref="X11">IF(Sales[[#This Row],[Qty Sold from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsedInThisSale,_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale),INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale))))</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3" cm="1">
+        <f t="array" ref="Y11">Sales[[#This Row],[Qty Sold from Newest Order]]*INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),Sales[[#This Row],[Index of Last Order Consumed]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42084</v>
       </c>
@@ -1601,7 +1946,7 @@
         <v>60</v>
       </c>
       <c r="J12" s="3">
-        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[CORGS]]</f>
+        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[COMGS]]+Sales[[#This Row],[CONGS]]</f>
         <v>873</v>
       </c>
       <c r="K12">
@@ -1640,12 +1985,32 @@
         <f>Sales[[#This Row],[Qty Sold]]-Sales[[#This Row],[Qty of Oldest Order Sold]]</f>
         <v>9</v>
       </c>
-      <c r="T12" s="3" cm="1">
-        <f t="array" ref="T12">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.filteredCostPerUnit,_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),IF(Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]&gt;=ROWS(_xlpm.filteredSupply),0,CORGS(Sales[[#This Row],[Additional Qty Needed]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,_xlpm.filteredSupply,_xlpm.filteredCostPerUnit)))</f>
+      <c r="T12" s="6" cm="1">
+        <f t="array" ref="T12">_xlfn.XMATCH(Sales[[#This Row],[Cumulative Sold]],_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),1,1)</f>
+        <v>3</v>
+      </c>
+      <c r="U12" s="6">
+        <f>IF(Sales[[#This Row],[Index of Last Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>2</v>
+      </c>
+      <c r="V12" s="6" cm="1">
+        <f t="array" ref="V12">IF(Sales[[#This Row],[Index of Penultimate Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],0,SUM(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="6">
+        <f>Sales[[#This Row],[Additional Qty Needed]]-Sales[[#This Row],[Qty Sold from Middle Orders]]</f>
+        <v>9</v>
+      </c>
+      <c r="X12" s="3" cm="1">
+        <f t="array" ref="X12">IF(Sales[[#This Row],[Qty Sold from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsedInThisSale,_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale),INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale))))</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3" cm="1">
+        <f t="array" ref="Y12">Sales[[#This Row],[Qty Sold from Newest Order]]*INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),Sales[[#This Row],[Index of Last Order Consumed]])</f>
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42085</v>
       </c>
@@ -1672,7 +2037,7 @@
         <v>80</v>
       </c>
       <c r="J13" s="3">
-        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[CORGS]]</f>
+        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[COMGS]]+Sales[[#This Row],[CONGS]]</f>
         <v>1272</v>
       </c>
       <c r="K13">
@@ -1711,12 +2076,32 @@
         <f>Sales[[#This Row],[Qty Sold]]-Sales[[#This Row],[Qty of Oldest Order Sold]]</f>
         <v>76</v>
       </c>
-      <c r="T13" s="3" cm="1">
-        <f t="array" ref="T13">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.filteredCostPerUnit,_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),IF(Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]&gt;=ROWS(_xlpm.filteredSupply),0,CORGS(Sales[[#This Row],[Additional Qty Needed]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,_xlpm.filteredSupply,_xlpm.filteredCostPerUnit)))</f>
-        <v>1196</v>
+      <c r="T13" s="6" cm="1">
+        <f t="array" ref="T13">_xlfn.XMATCH(Sales[[#This Row],[Cumulative Sold]],_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),1,1)</f>
+        <v>4</v>
+      </c>
+      <c r="U13" s="6">
+        <f>IF(Sales[[#This Row],[Index of Last Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>3</v>
+      </c>
+      <c r="V13" s="6" cm="1">
+        <f t="array" ref="V13">IF(Sales[[#This Row],[Index of Penultimate Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],0,SUM(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1))))</f>
+        <v>62</v>
+      </c>
+      <c r="W13" s="6">
+        <f>Sales[[#This Row],[Additional Qty Needed]]-Sales[[#This Row],[Qty Sold from Middle Orders]]</f>
+        <v>14</v>
+      </c>
+      <c r="X13" s="3" cm="1">
+        <f t="array" ref="X13">IF(Sales[[#This Row],[Qty Sold from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsedInThisSale,_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale),INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale))))</f>
+        <v>930</v>
+      </c>
+      <c r="Y13" s="3" cm="1">
+        <f t="array" ref="Y13">Sales[[#This Row],[Qty Sold from Newest Order]]*INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),Sales[[#This Row],[Index of Last Order Consumed]])</f>
+        <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42086</v>
       </c>
@@ -1743,12 +2128,12 @@
         <v>10</v>
       </c>
       <c r="J14" s="3">
-        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[CORGS]]</f>
+        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[COMGS]]+Sales[[#This Row],[CONGS]]</f>
         <v>150</v>
       </c>
       <c r="K14">
         <f>SUMIF(H$3:H14,Sales[[#This Row],[Flavor]],I$3:I14)</f>
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L14">
         <f>IFERROR(_xlfn.XMATCH(Sales[[#This Row],[Flavor]],H$2:H13,0,-1)-1,0)</f>
@@ -1756,7 +2141,7 @@
       </c>
       <c r="M14">
         <f>Sales[[#This Row],[Cumulative Sold]]-Sales[[#This Row],[Qty Sold]]</f>
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="N14" cm="1">
         <f t="array" ref="N14">_xlfn.XMATCH(Sales[[#This Row],[Total Qty Sold Before This Sale]],_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),1,1)</f>
@@ -1764,7 +2149,7 @@
       </c>
       <c r="O14" cm="1">
         <f t="array" ref="O14">INDEX(_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]])-IF(Sales[[#This Row],[Index of Last Sale]]=0,0,INDEX(K$3:K13,Sales[[#This Row],[Index of Last Sale]]))</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="P14" s="3" cm="1">
         <f t="array" ref="P14">INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],Orders[Flavor]=Sales[[#This Row],[Flavor]]),Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]])</f>
@@ -1782,12 +2167,32 @@
         <f>Sales[[#This Row],[Qty Sold]]-Sales[[#This Row],[Qty of Oldest Order Sold]]</f>
         <v>0</v>
       </c>
-      <c r="T14" s="3" cm="1">
-        <f t="array" ref="T14">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.filteredCostPerUnit,_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),IF(Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]&gt;=ROWS(_xlpm.filteredSupply),0,CORGS(Sales[[#This Row],[Additional Qty Needed]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,_xlpm.filteredSupply,_xlpm.filteredCostPerUnit)))</f>
+      <c r="T14" s="6" cm="1">
+        <f t="array" ref="T14">_xlfn.XMATCH(Sales[[#This Row],[Cumulative Sold]],_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),1,1)</f>
+        <v>4</v>
+      </c>
+      <c r="U14" s="6">
+        <f>IF(Sales[[#This Row],[Index of Last Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>4</v>
+      </c>
+      <c r="V14" s="6" cm="1">
+        <f t="array" ref="V14">IF(Sales[[#This Row],[Index of Penultimate Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],0,SUM(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="6">
+        <f>Sales[[#This Row],[Additional Qty Needed]]-Sales[[#This Row],[Qty Sold from Middle Orders]]</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" cm="1">
+        <f t="array" ref="X14">IF(Sales[[#This Row],[Qty Sold from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsedInThisSale,_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale),INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale))))</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" cm="1">
+        <f t="array" ref="Y14">Sales[[#This Row],[Qty Sold from Newest Order]]*INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),Sales[[#This Row],[Index of Last Order Consumed]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42087</v>
       </c>
@@ -1814,7 +2219,7 @@
         <v>80</v>
       </c>
       <c r="J15" s="3">
-        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[CORGS]]</f>
+        <f>Sales[[#This Row],[COOGS]]+Sales[[#This Row],[COMGS]]+Sales[[#This Row],[CONGS]]</f>
         <v>960</v>
       </c>
       <c r="K15">
@@ -1853,12 +2258,32 @@
         <f>Sales[[#This Row],[Qty Sold]]-Sales[[#This Row],[Qty of Oldest Order Sold]]</f>
         <v>0</v>
       </c>
-      <c r="T15" s="3" cm="1">
-        <f t="array" ref="T15">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.filteredCostPerUnit,_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),IF(Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]&gt;=ROWS(_xlpm.filteredSupply),0,CORGS(Sales[[#This Row],[Additional Qty Needed]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,_xlpm.filteredSupply,_xlpm.filteredCostPerUnit)))</f>
+      <c r="T15" s="6" cm="1">
+        <f t="array" ref="T15">_xlfn.XMATCH(Sales[[#This Row],[Cumulative Sold]],_xlfn._xlws.FILTER(Orders[Cumulative Ordered],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),1,1)</f>
+        <v>3</v>
+      </c>
+      <c r="U15" s="6">
+        <f>IF(Sales[[#This Row],[Index of Last Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>3</v>
+      </c>
+      <c r="V15" s="6" cm="1">
+        <f t="array" ref="V15">IF(Sales[[#This Row],[Index of Penultimate Order Consumed]]=Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],0,SUM(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="6">
+        <f>Sales[[#This Row],[Additional Qty Needed]]-Sales[[#This Row],[Qty Sold from Middle Orders]]</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="3" cm="1">
+        <f t="array" ref="X15">IF(Sales[[#This Row],[Qty Sold from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsedInThisSale,_xlfn.SEQUENCE(1,Sales[[#This Row],[Index of Penultimate Order Consumed]]-Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]],Sales[[#This Row],[Index of Oldest Order Still in Inventory Before This Sale]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(Orders[Qty Purchased],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale),INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),_xlpm.orderIndecesUsedInThisSale))))</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3" cm="1">
+        <f t="array" ref="Y15">Sales[[#This Row],[Qty Sold from Newest Order]]*INDEX(_xlfn._xlws.FILTER(Orders[Cost Per Unit],(Orders[Flavor]=Sales[[#This Row],[Flavor]])*(Orders[Date]&lt;Sales[[#This Row],[Date]])),Sales[[#This Row],[Index of Last Order Consumed]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42088</v>
       </c>
@@ -1892,10 +2317,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5877FB84-822C-407D-92D1-A73BDFA7F861}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,74 +2342,94 @@
     <col min="15" max="15" width="18.28515625" customWidth="1"/>
     <col min="16" max="17" width="19.7109375" customWidth="1"/>
     <col min="18" max="18" width="16.140625" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>42</v>
+      <c r="T1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42077</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2004,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Remaining Diesel Consumed]]</f>
+        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Diesel Consumed from Middle Orders]]+Diesel[[#This Row],[Price of Last Diesel Consumed]]</f>
         <v>0</v>
       </c>
       <c r="I2">
@@ -2048,16 +2493,36 @@
         <v>0</v>
       </c>
       <c r="S2" cm="1">
-        <f t="array" ref="S2">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(D$2:D2,B$2:B2=Diesel[[#This Row],[Project]]),_xlpm.filteredPricePerLiter,_xlfn._xlws.FILTER(E$2:E2,B$2:B2=Diesel[[#This Row],[Project]]),IF(Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]&gt;=ROWS(_xlpm.filteredSupply),0,CORD(Diesel[[#This Row],[Additional Liters Needed]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,_xlpm.filteredSupply,_xlpm.filteredPricePerLiter)))</f>
+        <f t="array" ref="S2">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Cumulative Consumed '[L']]],_xlfn._xlws.FILTER(J$1:J1,B$1:B1=Diesel[[#This Row],[Project]]),1,1))</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f>IF(Diesel[[#This Row],[Index of Last Order Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" cm="1">
+        <f t="array" ref="U2">IF(Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],0,SUM(INDEX(_xlfn._xlws.FILTER(D$1:D1,B$1:B1=Diesel[[#This Row],[Project]]),_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f>Diesel[[#This Row],[Additional Liters Needed]]-Diesel[[#This Row],[Liters Consumed from Middle Orders]]</f>
+        <v>0</v>
+      </c>
+      <c r="W2" cm="1">
+        <f t="array" ref="W2">IF(Diesel[[#This Row],[Liters Consumed from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsed,_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(D$1:D1,B$1:B1=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed),INDEX(_xlfn._xlws.FILTER(E$1:E1,B$1:B1=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed))))</f>
+        <v>0</v>
+      </c>
+      <c r="X2" cm="1">
+        <f t="array" ref="X2">IF(Diesel[[#This Row],[Liters Consumed from Last Order]]=0,0,Diesel[[#This Row],[Liters Consumed from Last Order]]*INDEX(_xlfn._xlws.FILTER(E$1:E1,B$1:B1=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Last Order Consumed]]))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42077</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2077,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Remaining Diesel Consumed]]</f>
+        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Diesel Consumed from Middle Orders]]+Diesel[[#This Row],[Price of Last Diesel Consumed]]</f>
         <v>0</v>
       </c>
       <c r="I3">
@@ -2121,16 +2586,36 @@
         <v>0</v>
       </c>
       <c r="S3" cm="1">
-        <f t="array" ref="S3">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(D$2:D3,B$2:B3=Diesel[[#This Row],[Project]]),_xlpm.filteredPricePerLiter,_xlfn._xlws.FILTER(E$2:E3,B$2:B3=Diesel[[#This Row],[Project]]),IF(Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]&gt;=ROWS(_xlpm.filteredSupply),0,CORD(Diesel[[#This Row],[Additional Liters Needed]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,_xlpm.filteredSupply,_xlpm.filteredPricePerLiter)))</f>
+        <f t="array" ref="S3">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Cumulative Consumed '[L']]],_xlfn._xlws.FILTER(J$1:J2,B$1:B2=Diesel[[#This Row],[Project]]),1,1))</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>IF(Diesel[[#This Row],[Index of Last Order Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" cm="1">
+        <f t="array" ref="U3">IF(Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],0,SUM(INDEX(_xlfn._xlws.FILTER(D$1:D2,B$1:B2=Diesel[[#This Row],[Project]]),_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>Diesel[[#This Row],[Additional Liters Needed]]-Diesel[[#This Row],[Liters Consumed from Middle Orders]]</f>
+        <v>0</v>
+      </c>
+      <c r="W3" cm="1">
+        <f t="array" ref="W3">IF(Diesel[[#This Row],[Liters Consumed from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsed,_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(D$1:D2,B$1:B2=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed),INDEX(_xlfn._xlws.FILTER(E$1:E2,B$1:B2=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed))))</f>
+        <v>0</v>
+      </c>
+      <c r="X3" cm="1">
+        <f t="array" ref="X3">IF(Diesel[[#This Row],[Liters Consumed from Last Order]]=0,0,Diesel[[#This Row],[Liters Consumed from Last Order]]*INDEX(_xlfn._xlws.FILTER(E$1:E2,B$1:B2=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Last Order Consumed]]))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42077</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2150,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Remaining Diesel Consumed]]</f>
+        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Diesel Consumed from Middle Orders]]+Diesel[[#This Row],[Price of Last Diesel Consumed]]</f>
         <v>0</v>
       </c>
       <c r="I4">
@@ -2194,19 +2679,39 @@
         <v>0</v>
       </c>
       <c r="S4" cm="1">
-        <f t="array" ref="S4">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(D$2:D4,B$2:B4=Diesel[[#This Row],[Project]]),_xlpm.filteredPricePerLiter,_xlfn._xlws.FILTER(E$2:E4,B$2:B4=Diesel[[#This Row],[Project]]),IF(Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]&gt;=ROWS(_xlpm.filteredSupply),0,CORD(Diesel[[#This Row],[Additional Liters Needed]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,_xlpm.filteredSupply,_xlpm.filteredPricePerLiter)))</f>
+        <f t="array" ref="S4">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Cumulative Consumed '[L']]],_xlfn._xlws.FILTER(J$1:J3,B$1:B3=Diesel[[#This Row],[Project]]),1,1))</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f>IF(Diesel[[#This Row],[Index of Last Order Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" cm="1">
+        <f t="array" ref="U4">IF(Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],0,SUM(INDEX(_xlfn._xlws.FILTER(D$1:D3,B$1:B3=Diesel[[#This Row],[Project]]),_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f>Diesel[[#This Row],[Additional Liters Needed]]-Diesel[[#This Row],[Liters Consumed from Middle Orders]]</f>
+        <v>0</v>
+      </c>
+      <c r="W4" cm="1">
+        <f t="array" ref="W4">IF(Diesel[[#This Row],[Liters Consumed from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsed,_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(D$1:D3,B$1:B3=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed),INDEX(_xlfn._xlws.FILTER(E$1:E3,B$1:B3=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed))))</f>
+        <v>0</v>
+      </c>
+      <c r="X4" cm="1">
+        <f t="array" ref="X4">IF(Diesel[[#This Row],[Liters Consumed from Last Order]]=0,0,Diesel[[#This Row],[Liters Consumed from Last Order]]*INDEX(_xlfn._xlws.FILTER(E$1:E3,B$1:B3=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Last Order Consumed]]))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42109</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="D5">
         <v>1000</v>
@@ -2216,15 +2721,15 @@
       </c>
       <c r="F5">
         <f>Diesel[[#This Row],[Starting Balance '[L']]]+Diesel[[#This Row],[Liters Purchased]]</f>
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="G5" cm="1">
         <f t="array" ref="G5">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,INDEX(Diesel[Ending Balance '[L']],Diesel[[#This Row],[Index of Last Entry]])-Diesel[[#This Row],[Starting Balance '[L']]])</f>
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Remaining Diesel Consumed]]</f>
-        <v>1400</v>
+        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Diesel Consumed from Middle Orders]]+Diesel[[#This Row],[Price of Last Diesel Consumed]]</f>
+        <v>200</v>
       </c>
       <c r="I5">
         <f>IFERROR(_xlfn.XMATCH(Diesel[[#This Row],[Project]],B$1:B4,0,-1)-1,0)</f>
@@ -2236,7 +2741,7 @@
       </c>
       <c r="K5">
         <f>SUMIF(B$2:B5,Diesel[[#This Row],[Project]],G$2:G5)</f>
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="L5">
         <f>Diesel[[#This Row],[Cumulative Consumed '[L']]]-Diesel[[#This Row],[Diesel Used '[L']]]</f>
@@ -2256,27 +2761,47 @@
       </c>
       <c r="P5">
         <f>MIN(Diesel[[#This Row],[Liters of Oldest Diesel Left in Tank Before This Consumption]],Diesel[[#This Row],[Diesel Used '[L']]])</f>
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <f>Diesel[[#This Row],[Liters of Oldest Diesel Consumed]]*Diesel[[#This Row],[Price Per Liter of Oldest Diesel]]</f>
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="R5">
         <f>Diesel[[#This Row],[Diesel Used '[L']]]-Diesel[[#This Row],[Liters of Oldest Diesel Consumed]]</f>
         <v>0</v>
       </c>
       <c r="S5" cm="1">
-        <f t="array" ref="S5">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(D$2:D5,B$2:B5=Diesel[[#This Row],[Project]]),_xlpm.filteredPricePerLiter,_xlfn._xlws.FILTER(E$2:E5,B$2:B5=Diesel[[#This Row],[Project]]),IF(Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]&gt;=ROWS(_xlpm.filteredSupply),0,CORD(Diesel[[#This Row],[Additional Liters Needed]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,_xlpm.filteredSupply,_xlpm.filteredPricePerLiter)))</f>
+        <f t="array" ref="S5">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Cumulative Consumed '[L']]],_xlfn._xlws.FILTER(J$1:J4,B$1:B4=Diesel[[#This Row],[Project]]),1,1))</f>
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <f>IF(Diesel[[#This Row],[Index of Last Order Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>1</v>
+      </c>
+      <c r="U5" cm="1">
+        <f t="array" ref="U5">IF(Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],0,SUM(INDEX(_xlfn._xlws.FILTER(D$1:D4,B$1:B4=Diesel[[#This Row],[Project]]),_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f>Diesel[[#This Row],[Additional Liters Needed]]-Diesel[[#This Row],[Liters Consumed from Middle Orders]]</f>
+        <v>0</v>
+      </c>
+      <c r="W5" cm="1">
+        <f t="array" ref="W5">IF(Diesel[[#This Row],[Liters Consumed from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsed,_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(D$1:D4,B$1:B4=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed),INDEX(_xlfn._xlws.FILTER(E$1:E4,B$1:B4=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed))))</f>
+        <v>0</v>
+      </c>
+      <c r="X5" cm="1">
+        <f t="array" ref="X5">IF(Diesel[[#This Row],[Liters Consumed from Last Order]]=0,0,Diesel[[#This Row],[Liters Consumed from Last Order]]*INDEX(_xlfn._xlws.FILTER(E$1:E4,B$1:B4=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Last Order Consumed]]))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42110</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -2296,7 +2821,7 @@
         <v>900</v>
       </c>
       <c r="H6">
-        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Remaining Diesel Consumed]]</f>
+        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Diesel Consumed from Middle Orders]]+Diesel[[#This Row],[Price of Last Diesel Consumed]]</f>
         <v>1710</v>
       </c>
       <c r="I6">
@@ -2340,16 +2865,36 @@
         <v>0</v>
       </c>
       <c r="S6" cm="1">
-        <f t="array" ref="S6">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(D$2:D6,B$2:B6=Diesel[[#This Row],[Project]]),_xlpm.filteredPricePerLiter,_xlfn._xlws.FILTER(E$2:E6,B$2:B6=Diesel[[#This Row],[Project]]),IF(Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]&gt;=ROWS(_xlpm.filteredSupply),0,CORD(Diesel[[#This Row],[Additional Liters Needed]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,_xlpm.filteredSupply,_xlpm.filteredPricePerLiter)))</f>
+        <f t="array" ref="S6">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Cumulative Consumed '[L']]],_xlfn._xlws.FILTER(J$1:J5,B$1:B5=Diesel[[#This Row],[Project]]),1,1))</f>
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <f>IF(Diesel[[#This Row],[Index of Last Order Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>1</v>
+      </c>
+      <c r="U6" cm="1">
+        <f t="array" ref="U6">IF(Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],0,SUM(INDEX(_xlfn._xlws.FILTER(D$1:D5,B$1:B5=Diesel[[#This Row],[Project]]),_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f>Diesel[[#This Row],[Additional Liters Needed]]-Diesel[[#This Row],[Liters Consumed from Middle Orders]]</f>
+        <v>0</v>
+      </c>
+      <c r="W6" cm="1">
+        <f t="array" ref="W6">IF(Diesel[[#This Row],[Liters Consumed from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsed,_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(D$1:D5,B$1:B5=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed),INDEX(_xlfn._xlws.FILTER(E$1:E5,B$1:B5=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed))))</f>
+        <v>0</v>
+      </c>
+      <c r="X6" cm="1">
+        <f t="array" ref="X6">IF(Diesel[[#This Row],[Liters Consumed from Last Order]]=0,0,Diesel[[#This Row],[Liters Consumed from Last Order]]*INDEX(_xlfn._xlws.FILTER(E$1:E5,B$1:B5=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Last Order Consumed]]))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42111</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>400</v>
@@ -2369,7 +2914,7 @@
         <v>500</v>
       </c>
       <c r="H7">
-        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Remaining Diesel Consumed]]</f>
+        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Diesel Consumed from Middle Orders]]+Diesel[[#This Row],[Price of Last Diesel Consumed]]</f>
         <v>1050</v>
       </c>
       <c r="I7">
@@ -2413,19 +2958,39 @@
         <v>0</v>
       </c>
       <c r="S7" cm="1">
-        <f t="array" ref="S7">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(D$2:D7,B$2:B7=Diesel[[#This Row],[Project]]),_xlpm.filteredPricePerLiter,_xlfn._xlws.FILTER(E$2:E7,B$2:B7=Diesel[[#This Row],[Project]]),IF(Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]&gt;=ROWS(_xlpm.filteredSupply),0,CORD(Diesel[[#This Row],[Additional Liters Needed]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,_xlpm.filteredSupply,_xlpm.filteredPricePerLiter)))</f>
+        <f t="array" ref="S7">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Cumulative Consumed '[L']]],_xlfn._xlws.FILTER(J$1:J6,B$1:B6=Diesel[[#This Row],[Project]]),1,1))</f>
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <f>IF(Diesel[[#This Row],[Index of Last Order Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>1</v>
+      </c>
+      <c r="U7" cm="1">
+        <f t="array" ref="U7">IF(Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],0,SUM(INDEX(_xlfn._xlws.FILTER(D$1:D6,B$1:B6=Diesel[[#This Row],[Project]]),_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f>Diesel[[#This Row],[Additional Liters Needed]]-Diesel[[#This Row],[Liters Consumed from Middle Orders]]</f>
+        <v>0</v>
+      </c>
+      <c r="W7" cm="1">
+        <f t="array" ref="W7">IF(Diesel[[#This Row],[Liters Consumed from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsed,_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(D$1:D6,B$1:B6=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed),INDEX(_xlfn._xlws.FILTER(E$1:E6,B$1:B6=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed))))</f>
+        <v>0</v>
+      </c>
+      <c r="X7" cm="1">
+        <f t="array" ref="X7">IF(Diesel[[#This Row],[Liters Consumed from Last Order]]=0,0,Diesel[[#This Row],[Liters Consumed from Last Order]]*INDEX(_xlfn._xlws.FILTER(E$1:E6,B$1:B6=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Last Order Consumed]]))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42142</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D8">
         <v>1000</v>
@@ -2435,15 +3000,15 @@
       </c>
       <c r="F8">
         <f>Diesel[[#This Row],[Starting Balance '[L']]]+Diesel[[#This Row],[Liters Purchased]]</f>
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="G8" cm="1">
         <f t="array" ref="G8">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,INDEX(Diesel[Ending Balance '[L']],Diesel[[#This Row],[Index of Last Entry]])-Diesel[[#This Row],[Starting Balance '[L']]])</f>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="H8">
-        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Remaining Diesel Consumed]]</f>
-        <v>2210</v>
+        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Diesel Consumed from Middle Orders]]+Diesel[[#This Row],[Price of Last Diesel Consumed]]</f>
+        <v>200</v>
       </c>
       <c r="I8">
         <f>IFERROR(_xlfn.XMATCH(Diesel[[#This Row],[Project]],B$1:B7,0,-1)-1,0)</f>
@@ -2455,11 +3020,11 @@
       </c>
       <c r="K8">
         <f>SUMIF(B$2:B8,Diesel[[#This Row],[Project]],G$2:G8)</f>
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="L8">
         <f>Diesel[[#This Row],[Cumulative Consumed '[L']]]-Diesel[[#This Row],[Diesel Used '[L']]]</f>
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="M8" cm="1">
         <f t="array" ref="M8">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Total Consumption Before This Consumption]],_xlfn._xlws.FILTER(J$1:J7,B$1:B7=Diesel[[#This Row],[Project]]),1,1))</f>
@@ -2467,7 +3032,7 @@
       </c>
       <c r="N8" cm="1">
         <f t="array" ref="N8">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,INDEX(_xlfn._xlws.FILTER(J$1:J7,B$1:B7=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]])-INDEX(K$1:K7,Diesel[[#This Row],[Index of Last Entry]]+1))</f>
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="O8" cm="1">
         <f t="array" ref="O8">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,INDEX(_xlfn._xlws.FILTER(E$1:E7,B$1:B7=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]))</f>
@@ -2475,27 +3040,47 @@
       </c>
       <c r="P8">
         <f>MIN(Diesel[[#This Row],[Liters of Oldest Diesel Left in Tank Before This Consumption]],Diesel[[#This Row],[Diesel Used '[L']]])</f>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q8">
         <f>Diesel[[#This Row],[Liters of Oldest Diesel Consumed]]*Diesel[[#This Row],[Price Per Liter of Oldest Diesel]]</f>
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="R8">
         <f>Diesel[[#This Row],[Diesel Used '[L']]]-Diesel[[#This Row],[Liters of Oldest Diesel Consumed]]</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="S8" cm="1">
-        <f t="array" ref="S8">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(D$2:D8,B$2:B8=Diesel[[#This Row],[Project]]),_xlpm.filteredPricePerLiter,_xlfn._xlws.FILTER(E$2:E8,B$2:B8=Diesel[[#This Row],[Project]]),IF(Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]&gt;=ROWS(_xlpm.filteredSupply),0,CORD(Diesel[[#This Row],[Additional Liters Needed]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,_xlpm.filteredSupply,_xlpm.filteredPricePerLiter)))</f>
-        <v>1609.9999999999998</v>
+        <f t="array" ref="S8">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Cumulative Consumed '[L']]],_xlfn._xlws.FILTER(J$1:J7,B$1:B7=Diesel[[#This Row],[Project]]),1,1))</f>
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <f>IF(Diesel[[#This Row],[Index of Last Order Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>1</v>
+      </c>
+      <c r="U8" cm="1">
+        <f t="array" ref="U8">IF(Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],0,SUM(INDEX(_xlfn._xlws.FILTER(D$1:D7,B$1:B7=Diesel[[#This Row],[Project]]),_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f>Diesel[[#This Row],[Additional Liters Needed]]-Diesel[[#This Row],[Liters Consumed from Middle Orders]]</f>
+        <v>0</v>
+      </c>
+      <c r="W8" cm="1">
+        <f t="array" ref="W8">IF(Diesel[[#This Row],[Liters Consumed from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsed,_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(D$1:D7,B$1:B7=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed),INDEX(_xlfn._xlws.FILTER(E$1:E7,B$1:B7=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed))))</f>
+        <v>0</v>
+      </c>
+      <c r="X8" cm="1">
+        <f t="array" ref="X8">IF(Diesel[[#This Row],[Liters Consumed from Last Order]]=0,0,Diesel[[#This Row],[Liters Consumed from Last Order]]*INDEX(_xlfn._xlws.FILTER(E$1:E7,B$1:B7=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Last Order Consumed]]))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42143</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>1000</v>
@@ -2515,7 +3100,7 @@
         <v>1100</v>
       </c>
       <c r="H9">
-        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Remaining Diesel Consumed]]</f>
+        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Diesel Consumed from Middle Orders]]+Diesel[[#This Row],[Price of Last Diesel Consumed]]</f>
         <v>2390</v>
       </c>
       <c r="I9">
@@ -2559,16 +3144,36 @@
         <v>1000</v>
       </c>
       <c r="S9" cm="1">
-        <f t="array" ref="S9">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(D$2:D9,B$2:B9=Diesel[[#This Row],[Project]]),_xlpm.filteredPricePerLiter,_xlfn._xlws.FILTER(E$2:E9,B$2:B9=Diesel[[#This Row],[Project]]),IF(Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]&gt;=ROWS(_xlpm.filteredSupply),0,CORD(Diesel[[#This Row],[Additional Liters Needed]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,_xlpm.filteredSupply,_xlpm.filteredPricePerLiter)))</f>
+        <f t="array" ref="S9">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Cumulative Consumed '[L']]],_xlfn._xlws.FILTER(J$1:J8,B$1:B8=Diesel[[#This Row],[Project]]),1,1))</f>
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <f>IF(Diesel[[#This Row],[Index of Last Order Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>1</v>
+      </c>
+      <c r="U9" cm="1">
+        <f t="array" ref="U9">IF(Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],0,SUM(INDEX(_xlfn._xlws.FILTER(D$1:D8,B$1:B8=Diesel[[#This Row],[Project]]),_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f>Diesel[[#This Row],[Additional Liters Needed]]-Diesel[[#This Row],[Liters Consumed from Middle Orders]]</f>
+        <v>1000</v>
+      </c>
+      <c r="W9" cm="1">
+        <f t="array" ref="W9">IF(Diesel[[#This Row],[Liters Consumed from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsed,_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(D$1:D8,B$1:B8=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed),INDEX(_xlfn._xlws.FILTER(E$1:E8,B$1:B8=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed))))</f>
+        <v>0</v>
+      </c>
+      <c r="X9" cm="1">
+        <f t="array" ref="X9">IF(Diesel[[#This Row],[Liters Consumed from Last Order]]=0,0,Diesel[[#This Row],[Liters Consumed from Last Order]]*INDEX(_xlfn._xlws.FILTER(E$1:E8,B$1:B8=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Last Order Consumed]]))</f>
         <v>2200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42144</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -2588,7 +3193,7 @@
         <v>800</v>
       </c>
       <c r="H10">
-        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Remaining Diesel Consumed]]</f>
+        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Diesel Consumed from Middle Orders]]+Diesel[[#This Row],[Price of Last Diesel Consumed]]</f>
         <v>1800</v>
       </c>
       <c r="I10">
@@ -2632,16 +3237,36 @@
         <v>400</v>
       </c>
       <c r="S10" cm="1">
-        <f t="array" ref="S10">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(D$2:D10,B$2:B10=Diesel[[#This Row],[Project]]),_xlpm.filteredPricePerLiter,_xlfn._xlws.FILTER(E$2:E10,B$2:B10=Diesel[[#This Row],[Project]]),IF(Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]&gt;=ROWS(_xlpm.filteredSupply),0,CORD(Diesel[[#This Row],[Additional Liters Needed]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,_xlpm.filteredSupply,_xlpm.filteredPricePerLiter)))</f>
+        <f t="array" ref="S10">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Cumulative Consumed '[L']]],_xlfn._xlws.FILTER(J$1:J9,B$1:B9=Diesel[[#This Row],[Project]]),1,1))</f>
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <f>IF(Diesel[[#This Row],[Index of Last Order Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>1</v>
+      </c>
+      <c r="U10" cm="1">
+        <f t="array" ref="U10">IF(Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],0,SUM(INDEX(_xlfn._xlws.FILTER(D$1:D9,B$1:B9=Diesel[[#This Row],[Project]]),_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f>Diesel[[#This Row],[Additional Liters Needed]]-Diesel[[#This Row],[Liters Consumed from Middle Orders]]</f>
+        <v>400</v>
+      </c>
+      <c r="W10" cm="1">
+        <f t="array" ref="W10">IF(Diesel[[#This Row],[Liters Consumed from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsed,_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(D$1:D9,B$1:B9=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed),INDEX(_xlfn._xlws.FILTER(E$1:E9,B$1:B9=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed))))</f>
+        <v>0</v>
+      </c>
+      <c r="X10" cm="1">
+        <f t="array" ref="X10">IF(Diesel[[#This Row],[Liters Consumed from Last Order]]=0,0,Diesel[[#This Row],[Liters Consumed from Last Order]]*INDEX(_xlfn._xlws.FILTER(E$1:E9,B$1:B9=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Last Order Consumed]]))</f>
         <v>960</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42176</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>1400</v>
@@ -2655,7 +3280,7 @@
         <v>200</v>
       </c>
       <c r="H11">
-        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Remaining Diesel Consumed]]</f>
+        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Diesel Consumed from Middle Orders]]+Diesel[[#This Row],[Price of Last Diesel Consumed]]</f>
         <v>510</v>
       </c>
       <c r="I11">
@@ -2699,31 +3324,57 @@
         <v>100</v>
       </c>
       <c r="S11" cm="1">
-        <f t="array" ref="S11">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(D$2:D11,B$2:B11=Diesel[[#This Row],[Project]]),_xlpm.filteredPricePerLiter,_xlfn._xlws.FILTER(E$2:E11,B$2:B11=Diesel[[#This Row],[Project]]),IF(Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]&gt;=ROWS(_xlpm.filteredSupply),0,CORD(Diesel[[#This Row],[Additional Liters Needed]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,_xlpm.filteredSupply,_xlpm.filteredPricePerLiter)))</f>
+        <f t="array" ref="S11">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Cumulative Consumed '[L']]],_xlfn._xlws.FILTER(J$1:J10,B$1:B10=Diesel[[#This Row],[Project]]),1,1))</f>
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <f>IF(Diesel[[#This Row],[Index of Last Order Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>2</v>
+      </c>
+      <c r="U11" cm="1">
+        <f t="array" ref="U11">IF(Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],0,SUM(INDEX(_xlfn._xlws.FILTER(D$1:D10,B$1:B10=Diesel[[#This Row],[Project]]),_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f>Diesel[[#This Row],[Additional Liters Needed]]-Diesel[[#This Row],[Liters Consumed from Middle Orders]]</f>
+        <v>100</v>
+      </c>
+      <c r="W11" cm="1">
+        <f t="array" ref="W11">IF(Diesel[[#This Row],[Liters Consumed from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsed,_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(D$1:D10,B$1:B10=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed),INDEX(_xlfn._xlws.FILTER(E$1:E10,B$1:B10=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed))))</f>
+        <v>0</v>
+      </c>
+      <c r="X11" cm="1">
+        <f t="array" ref="X11">IF(Diesel[[#This Row],[Liters Consumed from Last Order]]=0,0,Diesel[[#This Row],[Liters Consumed from Last Order]]*INDEX(_xlfn._xlws.FILTER(E$1:E10,B$1:B10=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Last Order Consumed]]))</f>
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42177</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12">
-        <v>1200</v>
+        <v>2700</v>
+      </c>
+      <c r="D12">
+        <v>500</v>
+      </c>
+      <c r="E12">
+        <v>2.75</v>
       </c>
       <c r="F12">
         <f>Diesel[[#This Row],[Starting Balance '[L']]]+Diesel[[#This Row],[Liters Purchased]]</f>
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="G12" cm="1">
         <f t="array" ref="G12">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,INDEX(Diesel[Ending Balance '[L']],Diesel[[#This Row],[Index of Last Entry]])-Diesel[[#This Row],[Starting Balance '[L']]])</f>
         <v>100</v>
       </c>
       <c r="H12">
-        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Remaining Diesel Consumed]]</f>
-        <v>229.99999999999997</v>
+        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Diesel Consumed from Middle Orders]]+Diesel[[#This Row],[Price of Last Diesel Consumed]]</f>
+        <v>200</v>
       </c>
       <c r="I12">
         <f>IFERROR(_xlfn.XMATCH(Diesel[[#This Row],[Project]],B$1:B11,0,-1)-1,0)</f>
@@ -2731,27 +3382,27 @@
       </c>
       <c r="J12">
         <f>SUMIF(B$2:B12,Diesel[[#This Row],[Project]],D$2:D12)</f>
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="K12">
         <f>SUMIF(B$2:B12,Diesel[[#This Row],[Project]],G$2:G12)</f>
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="L12">
         <f>Diesel[[#This Row],[Cumulative Consumed '[L']]]-Diesel[[#This Row],[Diesel Used '[L']]]</f>
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="M12" cm="1">
         <f t="array" ref="M12">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Total Consumption Before This Consumption]],_xlfn._xlws.FILTER(J$1:J11,B$1:B11=Diesel[[#This Row],[Project]]),1,1))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" cm="1">
         <f t="array" ref="N12">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,INDEX(_xlfn._xlws.FILTER(J$1:J11,B$1:B11=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]])-INDEX(K$1:K11,Diesel[[#This Row],[Index of Last Entry]]+1))</f>
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="O12" cm="1">
         <f t="array" ref="O12">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,INDEX(_xlfn._xlws.FILTER(E$1:E11,B$1:B11=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]))</f>
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="P12">
         <f>MIN(Diesel[[#This Row],[Liters of Oldest Diesel Left in Tank Before This Consumption]],Diesel[[#This Row],[Diesel Used '[L']]])</f>
@@ -2759,23 +3410,43 @@
       </c>
       <c r="Q12">
         <f>Diesel[[#This Row],[Liters of Oldest Diesel Consumed]]*Diesel[[#This Row],[Price Per Liter of Oldest Diesel]]</f>
-        <v>229.99999999999997</v>
+        <v>200</v>
       </c>
       <c r="R12">
         <f>Diesel[[#This Row],[Diesel Used '[L']]]-Diesel[[#This Row],[Liters of Oldest Diesel Consumed]]</f>
         <v>0</v>
       </c>
       <c r="S12" cm="1">
-        <f t="array" ref="S12">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(D$2:D12,B$2:B12=Diesel[[#This Row],[Project]]),_xlpm.filteredPricePerLiter,_xlfn._xlws.FILTER(E$2:E12,B$2:B12=Diesel[[#This Row],[Project]]),IF(Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]&gt;=ROWS(_xlpm.filteredSupply),0,CORD(Diesel[[#This Row],[Additional Liters Needed]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,_xlpm.filteredSupply,_xlpm.filteredPricePerLiter)))</f>
+        <f t="array" ref="S12">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Cumulative Consumed '[L']]],_xlfn._xlws.FILTER(J$1:J11,B$1:B11=Diesel[[#This Row],[Project]]),1,1))</f>
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <f>IF(Diesel[[#This Row],[Index of Last Order Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>1</v>
+      </c>
+      <c r="U12" cm="1">
+        <f t="array" ref="U12">IF(Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],0,SUM(INDEX(_xlfn._xlws.FILTER(D$1:D11,B$1:B11=Diesel[[#This Row],[Project]]),_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f>Diesel[[#This Row],[Additional Liters Needed]]-Diesel[[#This Row],[Liters Consumed from Middle Orders]]</f>
+        <v>0</v>
+      </c>
+      <c r="W12" cm="1">
+        <f t="array" ref="W12">IF(Diesel[[#This Row],[Liters Consumed from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsed,_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(D$1:D11,B$1:B11=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed),INDEX(_xlfn._xlws.FILTER(E$1:E11,B$1:B11=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed))))</f>
+        <v>0</v>
+      </c>
+      <c r="X12" cm="1">
+        <f t="array" ref="X12">IF(Diesel[[#This Row],[Liters Consumed from Last Order]]=0,0,Diesel[[#This Row],[Liters Consumed from Last Order]]*INDEX(_xlfn._xlws.FILTER(E$1:E11,B$1:B11=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Last Order Consumed]]))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42178</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>1700</v>
@@ -2789,7 +3460,7 @@
         <v>300</v>
       </c>
       <c r="H13">
-        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Remaining Diesel Consumed]]</f>
+        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Diesel Consumed from Middle Orders]]+Diesel[[#This Row],[Price of Last Diesel Consumed]]</f>
         <v>660</v>
       </c>
       <c r="I13">
@@ -2833,31 +3504,51 @@
         <v>0</v>
       </c>
       <c r="S13" cm="1">
-        <f t="array" ref="S13">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(D$2:D13,B$2:B13=Diesel[[#This Row],[Project]]),_xlpm.filteredPricePerLiter,_xlfn._xlws.FILTER(E$2:E13,B$2:B13=Diesel[[#This Row],[Project]]),IF(Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]&gt;=ROWS(_xlpm.filteredSupply),0,CORD(Diesel[[#This Row],[Additional Liters Needed]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,_xlpm.filteredSupply,_xlpm.filteredPricePerLiter)))</f>
+        <f t="array" ref="S13">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Cumulative Consumed '[L']]],_xlfn._xlws.FILTER(J$1:J12,B$1:B12=Diesel[[#This Row],[Project]]),1,1))</f>
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <f>IF(Diesel[[#This Row],[Index of Last Order Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>2</v>
+      </c>
+      <c r="U13" cm="1">
+        <f t="array" ref="U13">IF(Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],0,SUM(INDEX(_xlfn._xlws.FILTER(D$1:D12,B$1:B12=Diesel[[#This Row],[Project]]),_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f>Diesel[[#This Row],[Additional Liters Needed]]-Diesel[[#This Row],[Liters Consumed from Middle Orders]]</f>
+        <v>0</v>
+      </c>
+      <c r="W13" cm="1">
+        <f t="array" ref="W13">IF(Diesel[[#This Row],[Liters Consumed from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsed,_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(D$1:D12,B$1:B12=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed),INDEX(_xlfn._xlws.FILTER(E$1:E12,B$1:B12=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed))))</f>
+        <v>0</v>
+      </c>
+      <c r="X13" cm="1">
+        <f t="array" ref="X13">IF(Diesel[[#This Row],[Liters Consumed from Last Order]]=0,0,Diesel[[#This Row],[Liters Consumed from Last Order]]*INDEX(_xlfn._xlws.FILTER(E$1:E12,B$1:B12=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Last Order Consumed]]))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42209</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>1000</v>
+        <v>3100</v>
       </c>
       <c r="F14">
         <f>Diesel[[#This Row],[Starting Balance '[L']]]+Diesel[[#This Row],[Liters Purchased]]</f>
-        <v>1000</v>
+        <v>3100</v>
       </c>
       <c r="G14" cm="1">
         <f t="array" ref="G14">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,INDEX(Diesel[Ending Balance '[L']],Diesel[[#This Row],[Index of Last Entry]])-Diesel[[#This Row],[Starting Balance '[L']]])</f>
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Diesel Consumed from Middle Orders]]+Diesel[[#This Row],[Price of Last Diesel Consumed]]</f>
         <v>200</v>
-      </c>
-      <c r="H14">
-        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Remaining Diesel Consumed]]</f>
-        <v>459.99999999999994</v>
       </c>
       <c r="I14">
         <f>IFERROR(_xlfn.XMATCH(Diesel[[#This Row],[Project]],B$1:B13,0,-1)-1,0)</f>
@@ -2865,51 +3556,71 @@
       </c>
       <c r="J14">
         <f>SUMIF(B$2:B14,Diesel[[#This Row],[Project]],D$2:D14)</f>
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="K14">
         <f>SUMIF(B$2:B14,Diesel[[#This Row],[Project]],G$2:G14)</f>
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="L14">
         <f>Diesel[[#This Row],[Cumulative Consumed '[L']]]-Diesel[[#This Row],[Diesel Used '[L']]]</f>
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="M14" cm="1">
         <f t="array" ref="M14">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Total Consumption Before This Consumption]],_xlfn._xlws.FILTER(J$1:J13,B$1:B13=Diesel[[#This Row],[Project]]),1,1))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" cm="1">
         <f t="array" ref="N14">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,INDEX(_xlfn._xlws.FILTER(J$1:J13,B$1:B13=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]])-INDEX(K$1:K13,Diesel[[#This Row],[Index of Last Entry]]+1))</f>
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="O14" cm="1">
         <f t="array" ref="O14">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,INDEX(_xlfn._xlws.FILTER(E$1:E13,B$1:B13=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]))</f>
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="P14">
         <f>MIN(Diesel[[#This Row],[Liters of Oldest Diesel Left in Tank Before This Consumption]],Diesel[[#This Row],[Diesel Used '[L']]])</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q14">
         <f>Diesel[[#This Row],[Liters of Oldest Diesel Consumed]]*Diesel[[#This Row],[Price Per Liter of Oldest Diesel]]</f>
-        <v>459.99999999999994</v>
+        <v>200</v>
       </c>
       <c r="R14">
         <f>Diesel[[#This Row],[Diesel Used '[L']]]-Diesel[[#This Row],[Liters of Oldest Diesel Consumed]]</f>
         <v>0</v>
       </c>
       <c r="S14" cm="1">
-        <f t="array" ref="S14">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(D$2:D14,B$2:B14=Diesel[[#This Row],[Project]]),_xlpm.filteredPricePerLiter,_xlfn._xlws.FILTER(E$2:E14,B$2:B14=Diesel[[#This Row],[Project]]),IF(Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]&gt;=ROWS(_xlpm.filteredSupply),0,CORD(Diesel[[#This Row],[Additional Liters Needed]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,_xlpm.filteredSupply,_xlpm.filteredPricePerLiter)))</f>
+        <f t="array" ref="S14">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Cumulative Consumed '[L']]],_xlfn._xlws.FILTER(J$1:J13,B$1:B13=Diesel[[#This Row],[Project]]),1,1))</f>
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <f>IF(Diesel[[#This Row],[Index of Last Order Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>1</v>
+      </c>
+      <c r="U14" cm="1">
+        <f t="array" ref="U14">IF(Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],0,SUM(INDEX(_xlfn._xlws.FILTER(D$1:D13,B$1:B13=Diesel[[#This Row],[Project]]),_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f>Diesel[[#This Row],[Additional Liters Needed]]-Diesel[[#This Row],[Liters Consumed from Middle Orders]]</f>
+        <v>0</v>
+      </c>
+      <c r="W14" cm="1">
+        <f t="array" ref="W14">IF(Diesel[[#This Row],[Liters Consumed from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsed,_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(D$1:D13,B$1:B13=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed),INDEX(_xlfn._xlws.FILTER(E$1:E13,B$1:B13=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed))))</f>
+        <v>0</v>
+      </c>
+      <c r="X14" cm="1">
+        <f t="array" ref="X14">IF(Diesel[[#This Row],[Liters Consumed from Last Order]]=0,0,Diesel[[#This Row],[Liters Consumed from Last Order]]*INDEX(_xlfn._xlws.FILTER(E$1:E13,B$1:B13=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Last Order Consumed]]))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42210</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>700</v>
@@ -2929,7 +3640,7 @@
         <v>1000</v>
       </c>
       <c r="H15">
-        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Remaining Diesel Consumed]]</f>
+        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Diesel Consumed from Middle Orders]]+Diesel[[#This Row],[Price of Last Diesel Consumed]]</f>
         <v>2320</v>
       </c>
       <c r="I15">
@@ -2973,16 +3684,36 @@
         <v>300</v>
       </c>
       <c r="S15" cm="1">
-        <f t="array" ref="S15">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(D$2:D15,B$2:B15=Diesel[[#This Row],[Project]]),_xlpm.filteredPricePerLiter,_xlfn._xlws.FILTER(E$2:E15,B$2:B15=Diesel[[#This Row],[Project]]),IF(Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]&gt;=ROWS(_xlpm.filteredSupply),0,CORD(Diesel[[#This Row],[Additional Liters Needed]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,_xlpm.filteredSupply,_xlpm.filteredPricePerLiter)))</f>
+        <f t="array" ref="S15">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Cumulative Consumed '[L']]],_xlfn._xlws.FILTER(J$1:J14,B$1:B14=Diesel[[#This Row],[Project]]),1,1))</f>
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <f>IF(Diesel[[#This Row],[Index of Last Order Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>2</v>
+      </c>
+      <c r="U15" cm="1">
+        <f t="array" ref="U15">IF(Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],0,SUM(INDEX(_xlfn._xlws.FILTER(D$1:D14,B$1:B14=Diesel[[#This Row],[Project]]),_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f>Diesel[[#This Row],[Additional Liters Needed]]-Diesel[[#This Row],[Liters Consumed from Middle Orders]]</f>
+        <v>300</v>
+      </c>
+      <c r="W15" cm="1">
+        <f t="array" ref="W15">IF(Diesel[[#This Row],[Liters Consumed from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsed,_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(D$1:D14,B$1:B14=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed),INDEX(_xlfn._xlws.FILTER(E$1:E14,B$1:B14=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed))))</f>
+        <v>0</v>
+      </c>
+      <c r="X15" cm="1">
+        <f t="array" ref="X15">IF(Diesel[[#This Row],[Liters Consumed from Last Order]]=0,0,Diesel[[#This Row],[Liters Consumed from Last Order]]*INDEX(_xlfn._xlws.FILTER(E$1:E14,B$1:B14=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Last Order Consumed]]))</f>
         <v>780</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42211</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>300</v>
@@ -3002,7 +3733,7 @@
         <v>1100</v>
       </c>
       <c r="H16">
-        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Remaining Diesel Consumed]]</f>
+        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Diesel Consumed from Middle Orders]]+Diesel[[#This Row],[Price of Last Diesel Consumed]]</f>
         <v>2970</v>
       </c>
       <c r="I16">
@@ -3046,16 +3777,36 @@
         <v>0</v>
       </c>
       <c r="S16" cm="1">
-        <f t="array" ref="S16">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(D$2:D16,B$2:B16=Diesel[[#This Row],[Project]]),_xlpm.filteredPricePerLiter,_xlfn._xlws.FILTER(E$2:E16,B$2:B16=Diesel[[#This Row],[Project]]),IF(Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]&gt;=ROWS(_xlpm.filteredSupply),0,CORD(Diesel[[#This Row],[Additional Liters Needed]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,_xlpm.filteredSupply,_xlpm.filteredPricePerLiter)))</f>
+        <f t="array" ref="S16">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Cumulative Consumed '[L']]],_xlfn._xlws.FILTER(J$1:J15,B$1:B15=Diesel[[#This Row],[Project]]),1,1))</f>
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <f>IF(Diesel[[#This Row],[Index of Last Order Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>3</v>
+      </c>
+      <c r="U16" cm="1">
+        <f t="array" ref="U16">IF(Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],0,SUM(INDEX(_xlfn._xlws.FILTER(D$1:D15,B$1:B15=Diesel[[#This Row],[Project]]),_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f>Diesel[[#This Row],[Additional Liters Needed]]-Diesel[[#This Row],[Liters Consumed from Middle Orders]]</f>
+        <v>0</v>
+      </c>
+      <c r="W16" cm="1">
+        <f t="array" ref="W16">IF(Diesel[[#This Row],[Liters Consumed from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsed,_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(D$1:D15,B$1:B15=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed),INDEX(_xlfn._xlws.FILTER(E$1:E15,B$1:B15=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed))))</f>
+        <v>0</v>
+      </c>
+      <c r="X16" cm="1">
+        <f t="array" ref="X16">IF(Diesel[[#This Row],[Liters Consumed from Last Order]]=0,0,Diesel[[#This Row],[Liters Consumed from Last Order]]*INDEX(_xlfn._xlws.FILTER(E$1:E15,B$1:B15=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Last Order Consumed]]))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42237</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3066,11 +3817,11 @@
       </c>
       <c r="G17" cm="1">
         <f t="array" ref="G17">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,INDEX(Diesel[Ending Balance '[L']],Diesel[[#This Row],[Index of Last Entry]])-Diesel[[#This Row],[Starting Balance '[L']]])</f>
-        <v>1000</v>
+        <v>3100</v>
       </c>
       <c r="H17">
-        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Remaining Diesel Consumed]]</f>
-        <v>2500</v>
+        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Diesel Consumed from Middle Orders]]+Diesel[[#This Row],[Price of Last Diesel Consumed]]</f>
+        <v>7375</v>
       </c>
       <c r="I17">
         <f>IFERROR(_xlfn.XMATCH(Diesel[[#This Row],[Project]],B$1:B16,0,-1)-1,0)</f>
@@ -3078,51 +3829,71 @@
       </c>
       <c r="J17">
         <f>SUMIF(B$2:B17,Diesel[[#This Row],[Project]],D$2:D17)</f>
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="K17">
         <f>SUMIF(B$2:B17,Diesel[[#This Row],[Project]],G$2:G17)</f>
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L17">
         <f>Diesel[[#This Row],[Cumulative Consumed '[L']]]-Diesel[[#This Row],[Diesel Used '[L']]]</f>
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="M17" cm="1">
         <f t="array" ref="M17">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Total Consumption Before This Consumption]],_xlfn._xlws.FILTER(J$1:J16,B$1:B16=Diesel[[#This Row],[Project]]),1,1))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" cm="1">
         <f t="array" ref="N17">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,INDEX(_xlfn._xlws.FILTER(J$1:J16,B$1:B16=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]])-INDEX(K$1:K16,Diesel[[#This Row],[Index of Last Entry]]+1))</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O17" cm="1">
         <f t="array" ref="O17">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,INDEX(_xlfn._xlws.FILTER(E$1:E16,B$1:B16=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]))</f>
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="P17">
         <f>MIN(Diesel[[#This Row],[Liters of Oldest Diesel Left in Tank Before This Consumption]],Diesel[[#This Row],[Diesel Used '[L']]])</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="Q17">
         <f>Diesel[[#This Row],[Liters of Oldest Diesel Consumed]]*Diesel[[#This Row],[Price Per Liter of Oldest Diesel]]</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="R17">
         <f>Diesel[[#This Row],[Diesel Used '[L']]]-Diesel[[#This Row],[Liters of Oldest Diesel Consumed]]</f>
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="S17" cm="1">
-        <f t="array" ref="S17">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(D$2:D17,B$2:B17=Diesel[[#This Row],[Project]]),_xlpm.filteredPricePerLiter,_xlfn._xlws.FILTER(E$2:E17,B$2:B17=Diesel[[#This Row],[Project]]),IF(Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]&gt;=ROWS(_xlpm.filteredSupply),0,CORD(Diesel[[#This Row],[Additional Liters Needed]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,_xlpm.filteredSupply,_xlpm.filteredPricePerLiter)))</f>
-        <v>2500</v>
+        <f t="array" ref="S17">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Cumulative Consumed '[L']]],_xlfn._xlws.FILTER(J$1:J16,B$1:B16=Diesel[[#This Row],[Project]]),1,1))</f>
+        <v>4</v>
+      </c>
+      <c r="T17">
+        <f>IF(Diesel[[#This Row],[Index of Last Order Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>3</v>
+      </c>
+      <c r="U17" cm="1">
+        <f t="array" ref="U17">IF(Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],0,SUM(INDEX(_xlfn._xlws.FILTER(D$1:D16,B$1:B16=Diesel[[#This Row],[Project]]),_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1))))</f>
+        <v>2000</v>
+      </c>
+      <c r="V17">
+        <f>Diesel[[#This Row],[Additional Liters Needed]]-Diesel[[#This Row],[Liters Consumed from Middle Orders]]</f>
+        <v>500</v>
+      </c>
+      <c r="W17" cm="1">
+        <f t="array" ref="W17">IF(Diesel[[#This Row],[Liters Consumed from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsed,_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(D$1:D16,B$1:B16=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed),INDEX(_xlfn._xlws.FILTER(E$1:E16,B$1:B16=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed))))</f>
+        <v>4800</v>
+      </c>
+      <c r="X17" cm="1">
+        <f t="array" ref="X17">IF(Diesel[[#This Row],[Liters Consumed from Last Order]]=0,0,Diesel[[#This Row],[Liters Consumed from Last Order]]*INDEX(_xlfn._xlws.FILTER(E$1:E16,B$1:B16=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Last Order Consumed]]))</f>
+        <v>1375</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42238</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3136,7 +3907,7 @@
         <v>2200</v>
       </c>
       <c r="H18">
-        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Remaining Diesel Consumed]]</f>
+        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Diesel Consumed from Middle Orders]]+Diesel[[#This Row],[Price of Last Diesel Consumed]]</f>
         <v>6020</v>
       </c>
       <c r="I18">
@@ -3180,16 +3951,36 @@
         <v>1500</v>
       </c>
       <c r="S18" cm="1">
-        <f t="array" ref="S18">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(D$2:D18,B$2:B18=Diesel[[#This Row],[Project]]),_xlpm.filteredPricePerLiter,_xlfn._xlws.FILTER(E$2:E18,B$2:B18=Diesel[[#This Row],[Project]]),IF(Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]&gt;=ROWS(_xlpm.filteredSupply),0,CORD(Diesel[[#This Row],[Additional Liters Needed]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,_xlpm.filteredSupply,_xlpm.filteredPricePerLiter)))</f>
+        <f t="array" ref="S18">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Cumulative Consumed '[L']]],_xlfn._xlws.FILTER(J$1:J17,B$1:B17=Diesel[[#This Row],[Project]]),1,1))</f>
+        <v>5</v>
+      </c>
+      <c r="T18">
+        <f>IF(Diesel[[#This Row],[Index of Last Order Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>4</v>
+      </c>
+      <c r="U18" cm="1">
+        <f t="array" ref="U18">IF(Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],0,SUM(INDEX(_xlfn._xlws.FILTER(D$1:D17,B$1:B17=Diesel[[#This Row],[Project]]),_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f>Diesel[[#This Row],[Additional Liters Needed]]-Diesel[[#This Row],[Liters Consumed from Middle Orders]]</f>
+        <v>1500</v>
+      </c>
+      <c r="W18" cm="1">
+        <f t="array" ref="W18">IF(Diesel[[#This Row],[Liters Consumed from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsed,_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(D$1:D17,B$1:B17=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed),INDEX(_xlfn._xlws.FILTER(E$1:E17,B$1:B17=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed))))</f>
+        <v>0</v>
+      </c>
+      <c r="X18" cm="1">
+        <f t="array" ref="X18">IF(Diesel[[#This Row],[Liters Consumed from Last Order]]=0,0,Diesel[[#This Row],[Liters Consumed from Last Order]]*INDEX(_xlfn._xlws.FILTER(E$1:E17,B$1:B17=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Last Order Consumed]]))</f>
         <v>4200</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42239</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3203,7 +3994,7 @@
         <v>1800</v>
       </c>
       <c r="H19">
-        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Remaining Diesel Consumed]]</f>
+        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Diesel Consumed from Middle Orders]]+Diesel[[#This Row],[Price of Last Diesel Consumed]]</f>
         <v>5160</v>
       </c>
       <c r="I19">
@@ -3247,16 +4038,36 @@
         <v>1500</v>
       </c>
       <c r="S19" cm="1">
-        <f t="array" ref="S19">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(D$2:D19,B$2:B19=Diesel[[#This Row],[Project]]),_xlpm.filteredPricePerLiter,_xlfn._xlws.FILTER(E$2:E19,B$2:B19=Diesel[[#This Row],[Project]]),IF(Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]&gt;=ROWS(_xlpm.filteredSupply),0,CORD(Diesel[[#This Row],[Additional Liters Needed]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,_xlpm.filteredSupply,_xlpm.filteredPricePerLiter)))</f>
+        <f t="array" ref="S19">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Cumulative Consumed '[L']]],_xlfn._xlws.FILTER(J$1:J18,B$1:B18=Diesel[[#This Row],[Project]]),1,1))</f>
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <f>IF(Diesel[[#This Row],[Index of Last Order Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>4</v>
+      </c>
+      <c r="U19" cm="1">
+        <f t="array" ref="U19">IF(Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],0,SUM(INDEX(_xlfn._xlws.FILTER(D$1:D18,B$1:B18=Diesel[[#This Row],[Project]]),_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f>Diesel[[#This Row],[Additional Liters Needed]]-Diesel[[#This Row],[Liters Consumed from Middle Orders]]</f>
+        <v>1500</v>
+      </c>
+      <c r="W19" cm="1">
+        <f t="array" ref="W19">IF(Diesel[[#This Row],[Liters Consumed from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsed,_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(D$1:D18,B$1:B18=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed),INDEX(_xlfn._xlws.FILTER(E$1:E18,B$1:B18=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed))))</f>
+        <v>0</v>
+      </c>
+      <c r="X19" cm="1">
+        <f t="array" ref="X19">IF(Diesel[[#This Row],[Liters Consumed from Last Order]]=0,0,Diesel[[#This Row],[Liters Consumed from Last Order]]*INDEX(_xlfn._xlws.FILTER(E$1:E18,B$1:B18=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Last Order Consumed]]))</f>
         <v>4350</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42271</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3276,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Remaining Diesel Consumed]]</f>
+        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Diesel Consumed from Middle Orders]]+Diesel[[#This Row],[Price of Last Diesel Consumed]]</f>
         <v>0</v>
       </c>
       <c r="I20">
@@ -3285,19 +4096,19 @@
       </c>
       <c r="J20">
         <f>SUMIF(B$2:B20,Diesel[[#This Row],[Project]],D$2:D20)</f>
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="K20">
         <f>SUMIF(B$2:B20,Diesel[[#This Row],[Project]],G$2:G20)</f>
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L20">
         <f>Diesel[[#This Row],[Cumulative Consumed '[L']]]-Diesel[[#This Row],[Diesel Used '[L']]]</f>
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M20" cm="1">
         <f t="array" ref="M20">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Total Consumption Before This Consumption]],_xlfn._xlws.FILTER(J$1:J19,B$1:B19=Diesel[[#This Row],[Project]]),1,1))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" cm="1">
         <f t="array" ref="N20">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,INDEX(_xlfn._xlws.FILTER(J$1:J19,B$1:B19=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]])-INDEX(K$1:K19,Diesel[[#This Row],[Index of Last Entry]]+1))</f>
@@ -3305,7 +4116,7 @@
       </c>
       <c r="O20" cm="1">
         <f t="array" ref="O20">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,INDEX(_xlfn._xlws.FILTER(E$1:E19,B$1:B19=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]))</f>
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="P20">
         <f>MIN(Diesel[[#This Row],[Liters of Oldest Diesel Left in Tank Before This Consumption]],Diesel[[#This Row],[Diesel Used '[L']]])</f>
@@ -3320,16 +4131,36 @@
         <v>0</v>
       </c>
       <c r="S20" cm="1">
-        <f t="array" ref="S20">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(D$2:D20,B$2:B20=Diesel[[#This Row],[Project]]),_xlpm.filteredPricePerLiter,_xlfn._xlws.FILTER(E$2:E20,B$2:B20=Diesel[[#This Row],[Project]]),IF(Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]&gt;=ROWS(_xlpm.filteredSupply),0,CORD(Diesel[[#This Row],[Additional Liters Needed]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,_xlpm.filteredSupply,_xlpm.filteredPricePerLiter)))</f>
+        <f t="array" ref="S20">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Cumulative Consumed '[L']]],_xlfn._xlws.FILTER(J$1:J19,B$1:B19=Diesel[[#This Row],[Project]]),1,1))</f>
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <f>IF(Diesel[[#This Row],[Index of Last Order Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>4</v>
+      </c>
+      <c r="U20" cm="1">
+        <f t="array" ref="U20">IF(Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],0,SUM(INDEX(_xlfn._xlws.FILTER(D$1:D19,B$1:B19=Diesel[[#This Row],[Project]]),_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f>Diesel[[#This Row],[Additional Liters Needed]]-Diesel[[#This Row],[Liters Consumed from Middle Orders]]</f>
+        <v>0</v>
+      </c>
+      <c r="W20" cm="1">
+        <f t="array" ref="W20">IF(Diesel[[#This Row],[Liters Consumed from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsed,_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(D$1:D19,B$1:B19=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed),INDEX(_xlfn._xlws.FILTER(E$1:E19,B$1:B19=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed))))</f>
+        <v>0</v>
+      </c>
+      <c r="X20" cm="1">
+        <f t="array" ref="X20">IF(Diesel[[#This Row],[Liters Consumed from Last Order]]=0,0,Diesel[[#This Row],[Liters Consumed from Last Order]]*INDEX(_xlfn._xlws.FILTER(E$1:E19,B$1:B19=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Last Order Consumed]]))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42272</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3349,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Remaining Diesel Consumed]]</f>
+        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Diesel Consumed from Middle Orders]]+Diesel[[#This Row],[Price of Last Diesel Consumed]]</f>
         <v>0</v>
       </c>
       <c r="I21">
@@ -3393,16 +4224,36 @@
         <v>0</v>
       </c>
       <c r="S21" cm="1">
-        <f t="array" ref="S21">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(D$2:D21,B$2:B21=Diesel[[#This Row],[Project]]),_xlpm.filteredPricePerLiter,_xlfn._xlws.FILTER(E$2:E21,B$2:B21=Diesel[[#This Row],[Project]]),IF(Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]&gt;=ROWS(_xlpm.filteredSupply),0,CORD(Diesel[[#This Row],[Additional Liters Needed]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,_xlpm.filteredSupply,_xlpm.filteredPricePerLiter)))</f>
+        <f t="array" ref="S21">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Cumulative Consumed '[L']]],_xlfn._xlws.FILTER(J$1:J20,B$1:B20=Diesel[[#This Row],[Project]]),1,1))</f>
+        <v>5</v>
+      </c>
+      <c r="T21">
+        <f>IF(Diesel[[#This Row],[Index of Last Order Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>5</v>
+      </c>
+      <c r="U21" cm="1">
+        <f t="array" ref="U21">IF(Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],0,SUM(INDEX(_xlfn._xlws.FILTER(D$1:D20,B$1:B20=Diesel[[#This Row],[Project]]),_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f>Diesel[[#This Row],[Additional Liters Needed]]-Diesel[[#This Row],[Liters Consumed from Middle Orders]]</f>
+        <v>0</v>
+      </c>
+      <c r="W21" cm="1">
+        <f t="array" ref="W21">IF(Diesel[[#This Row],[Liters Consumed from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsed,_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(D$1:D20,B$1:B20=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed),INDEX(_xlfn._xlws.FILTER(E$1:E20,B$1:B20=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed))))</f>
+        <v>0</v>
+      </c>
+      <c r="X21" cm="1">
+        <f t="array" ref="X21">IF(Diesel[[#This Row],[Liters Consumed from Last Order]]=0,0,Diesel[[#This Row],[Liters Consumed from Last Order]]*INDEX(_xlfn._xlws.FILTER(E$1:E20,B$1:B20=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Last Order Consumed]]))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42273</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3422,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Remaining Diesel Consumed]]</f>
+        <f>Diesel[[#This Row],[Price of Oldest Diesel Consumed]]+Diesel[[#This Row],[Price of Diesel Consumed from Middle Orders]]+Diesel[[#This Row],[Price of Last Diesel Consumed]]</f>
         <v>0</v>
       </c>
       <c r="I22">
@@ -3466,7 +4317,27 @@
         <v>0</v>
       </c>
       <c r="S22" cm="1">
-        <f t="array" ref="S22">_xlfn.LET(_xlpm.filteredSupply,_xlfn._xlws.FILTER(D$2:D22,B$2:B22=Diesel[[#This Row],[Project]]),_xlpm.filteredPricePerLiter,_xlfn._xlws.FILTER(E$2:E22,B$2:B22=Diesel[[#This Row],[Project]]),IF(Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]&gt;=ROWS(_xlpm.filteredSupply),0,CORD(Diesel[[#This Row],[Additional Liters Needed]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,_xlpm.filteredSupply,_xlpm.filteredPricePerLiter)))</f>
+        <f t="array" ref="S22">IF(Diesel[[#This Row],[Index of Last Entry]]=0,0,_xlfn.XMATCH(Diesel[[#This Row],[Cumulative Consumed '[L']]],_xlfn._xlws.FILTER(J$1:J21,B$1:B21=Diesel[[#This Row],[Project]]),1,1))</f>
+        <v>5</v>
+      </c>
+      <c r="T22">
+        <f>IF(Diesel[[#This Row],[Index of Last Order Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Last Order Consumed]]-1)</f>
+        <v>5</v>
+      </c>
+      <c r="U22" cm="1">
+        <f t="array" ref="U22">IF(Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]=Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],0,SUM(INDEX(_xlfn._xlws.FILTER(D$1:D21,B$1:B21=Diesel[[#This Row],[Project]]),_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1))))</f>
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f>Diesel[[#This Row],[Additional Liters Needed]]-Diesel[[#This Row],[Liters Consumed from Middle Orders]]</f>
+        <v>0</v>
+      </c>
+      <c r="W22" cm="1">
+        <f t="array" ref="W22">IF(Diesel[[#This Row],[Liters Consumed from Middle Orders]]=0,0,_xlfn.LET(_xlpm.orderIndecesUsed,_xlfn.SEQUENCE(1,Diesel[[#This Row],[Index of Penultimate Diesel Consumed]]-Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]],Diesel[[#This Row],[Index of Oldest Diesel Still in Tank Before This Consumption]]+1,1),SUMPRODUCT(INDEX(_xlfn._xlws.FILTER(D$1:D21,B$1:B21=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed),INDEX(_xlfn._xlws.FILTER(E$1:E21,B$1:B21=Diesel[[#This Row],[Project]]),_xlpm.orderIndecesUsed))))</f>
+        <v>0</v>
+      </c>
+      <c r="X22" cm="1">
+        <f t="array" ref="X22">IF(Diesel[[#This Row],[Liters Consumed from Last Order]]=0,0,Diesel[[#This Row],[Liters Consumed from Last Order]]*INDEX(_xlfn._xlws.FILTER(E$1:E21,B$1:B21=Diesel[[#This Row],[Project]]),Diesel[[#This Row],[Index of Last Order Consumed]]))</f>
         <v>0</v>
       </c>
     </row>
